--- a/PhotonTorpedo.Device/Calculations.xlsx
+++ b/PhotonTorpedo.Device/Calculations.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Downloads\2017\201712 Arduino\PhotonTorpedo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lutz\VS Projects\Arduino\PhotonTorpedo\PhotonTorpedo\PhotonTorpedo.Device\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -3682,7 +3683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
@@ -3714,19 +3715,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <f>IF($E2&lt;85,255-$E2*3,IF($E2&lt;170,0,($E2-170) * 3))</f>
+        <f t="shared" ref="B2:B65" si="0">IF($E2&lt;85,255-$E2*3,IF($E2&lt;170,0,($E2-170) * 3))</f>
         <v>255</v>
       </c>
       <c r="C2">
-        <f>IF($E2&lt;85,0,IF($E2&lt;170,($E2-85)*3,255 - ($E2-170) * 3))</f>
+        <f t="shared" ref="C2:C65" si="1">IF($E2&lt;85,0,IF($E2&lt;170,($E2-85)*3,255 - ($E2-170) * 3))</f>
         <v>0</v>
       </c>
       <c r="D2">
-        <f>IF($E2&lt;85,$E2*3,IF($E2&lt;170,255 - ($E2-85) * 3,0))</f>
+        <f t="shared" ref="D2:D65" si="2">IF($E2&lt;85,$E2*3,IF($E2&lt;170,255 - ($E2-85) * 3,0))</f>
         <v>0</v>
       </c>
       <c r="E2">
-        <f>255-A2</f>
+        <f t="shared" ref="E2:E65" si="3">255-A2</f>
         <v>255</v>
       </c>
     </row>
@@ -3735,19 +3736,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <f>IF($E3&lt;85,255-$E3*3,IF($E3&lt;170,0,($E3-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>252</v>
       </c>
       <c r="C3">
-        <f>IF($E3&lt;85,0,IF($E3&lt;170,($E3-85)*3,255 - ($E3-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D3">
-        <f>IF($E3&lt;85,$E3*3,IF($E3&lt;170,255 - ($E3-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E3">
-        <f>255-A3</f>
+        <f t="shared" si="3"/>
         <v>254</v>
       </c>
     </row>
@@ -3756,19 +3757,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f>IF($E4&lt;85,255-$E4*3,IF($E4&lt;170,0,($E4-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>249</v>
       </c>
       <c r="C4">
-        <f>IF($E4&lt;85,0,IF($E4&lt;170,($E4-85)*3,255 - ($E4-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D4">
-        <f>IF($E4&lt;85,$E4*3,IF($E4&lt;170,255 - ($E4-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E4">
-        <f>255-A4</f>
+        <f t="shared" si="3"/>
         <v>253</v>
       </c>
     </row>
@@ -3777,19 +3778,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <f>IF($E5&lt;85,255-$E5*3,IF($E5&lt;170,0,($E5-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>246</v>
       </c>
       <c r="C5">
-        <f>IF($E5&lt;85,0,IF($E5&lt;170,($E5-85)*3,255 - ($E5-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D5">
-        <f>IF($E5&lt;85,$E5*3,IF($E5&lt;170,255 - ($E5-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E5">
-        <f>255-A5</f>
+        <f t="shared" si="3"/>
         <v>252</v>
       </c>
     </row>
@@ -3798,19 +3799,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <f>IF($E6&lt;85,255-$E6*3,IF($E6&lt;170,0,($E6-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>243</v>
       </c>
       <c r="C6">
-        <f>IF($E6&lt;85,0,IF($E6&lt;170,($E6-85)*3,255 - ($E6-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D6">
-        <f>IF($E6&lt;85,$E6*3,IF($E6&lt;170,255 - ($E6-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E6">
-        <f>255-A6</f>
+        <f t="shared" si="3"/>
         <v>251</v>
       </c>
     </row>
@@ -3819,19 +3820,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <f>IF($E7&lt;85,255-$E7*3,IF($E7&lt;170,0,($E7-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>240</v>
       </c>
       <c r="C7">
-        <f>IF($E7&lt;85,0,IF($E7&lt;170,($E7-85)*3,255 - ($E7-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="D7">
-        <f>IF($E7&lt;85,$E7*3,IF($E7&lt;170,255 - ($E7-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E7">
-        <f>255-A7</f>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
     </row>
@@ -3840,19 +3841,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <f>IF($E8&lt;85,255-$E8*3,IF($E8&lt;170,0,($E8-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>237</v>
       </c>
       <c r="C8">
-        <f>IF($E8&lt;85,0,IF($E8&lt;170,($E8-85)*3,255 - ($E8-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="D8">
-        <f>IF($E8&lt;85,$E8*3,IF($E8&lt;170,255 - ($E8-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E8">
-        <f>255-A8</f>
+        <f t="shared" si="3"/>
         <v>249</v>
       </c>
     </row>
@@ -3861,19 +3862,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <f>IF($E9&lt;85,255-$E9*3,IF($E9&lt;170,0,($E9-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>234</v>
       </c>
       <c r="C9">
-        <f>IF($E9&lt;85,0,IF($E9&lt;170,($E9-85)*3,255 - ($E9-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="D9">
-        <f>IF($E9&lt;85,$E9*3,IF($E9&lt;170,255 - ($E9-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f>255-A9</f>
+        <f t="shared" si="3"/>
         <v>248</v>
       </c>
     </row>
@@ -3882,19 +3883,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <f>IF($E10&lt;85,255-$E10*3,IF($E10&lt;170,0,($E10-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>231</v>
       </c>
       <c r="C10">
-        <f>IF($E10&lt;85,0,IF($E10&lt;170,($E10-85)*3,255 - ($E10-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="D10">
-        <f>IF($E10&lt;85,$E10*3,IF($E10&lt;170,255 - ($E10-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E10">
-        <f>255-A10</f>
+        <f t="shared" si="3"/>
         <v>247</v>
       </c>
     </row>
@@ -3903,19 +3904,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <f>IF($E11&lt;85,255-$E11*3,IF($E11&lt;170,0,($E11-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>228</v>
       </c>
       <c r="C11">
-        <f>IF($E11&lt;85,0,IF($E11&lt;170,($E11-85)*3,255 - ($E11-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="D11">
-        <f>IF($E11&lt;85,$E11*3,IF($E11&lt;170,255 - ($E11-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <f>255-A11</f>
+        <f t="shared" si="3"/>
         <v>246</v>
       </c>
     </row>
@@ -3924,19 +3925,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <f>IF($E12&lt;85,255-$E12*3,IF($E12&lt;170,0,($E12-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>225</v>
       </c>
       <c r="C12">
-        <f>IF($E12&lt;85,0,IF($E12&lt;170,($E12-85)*3,255 - ($E12-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="D12">
-        <f>IF($E12&lt;85,$E12*3,IF($E12&lt;170,255 - ($E12-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E12">
-        <f>255-A12</f>
+        <f t="shared" si="3"/>
         <v>245</v>
       </c>
     </row>
@@ -3945,19 +3946,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <f>IF($E13&lt;85,255-$E13*3,IF($E13&lt;170,0,($E13-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>222</v>
       </c>
       <c r="C13">
-        <f>IF($E13&lt;85,0,IF($E13&lt;170,($E13-85)*3,255 - ($E13-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="D13">
-        <f>IF($E13&lt;85,$E13*3,IF($E13&lt;170,255 - ($E13-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E13">
-        <f>255-A13</f>
+        <f t="shared" si="3"/>
         <v>244</v>
       </c>
     </row>
@@ -3966,19 +3967,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <f>IF($E14&lt;85,255-$E14*3,IF($E14&lt;170,0,($E14-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>219</v>
       </c>
       <c r="C14">
-        <f>IF($E14&lt;85,0,IF($E14&lt;170,($E14-85)*3,255 - ($E14-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="D14">
-        <f>IF($E14&lt;85,$E14*3,IF($E14&lt;170,255 - ($E14-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E14">
-        <f>255-A14</f>
+        <f t="shared" si="3"/>
         <v>243</v>
       </c>
     </row>
@@ -3987,19 +3988,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <f>IF($E15&lt;85,255-$E15*3,IF($E15&lt;170,0,($E15-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>216</v>
       </c>
       <c r="C15">
-        <f>IF($E15&lt;85,0,IF($E15&lt;170,($E15-85)*3,255 - ($E15-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="D15">
-        <f>IF($E15&lt;85,$E15*3,IF($E15&lt;170,255 - ($E15-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E15">
-        <f>255-A15</f>
+        <f t="shared" si="3"/>
         <v>242</v>
       </c>
     </row>
@@ -4008,19 +4009,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <f>IF($E16&lt;85,255-$E16*3,IF($E16&lt;170,0,($E16-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>213</v>
       </c>
       <c r="C16">
-        <f>IF($E16&lt;85,0,IF($E16&lt;170,($E16-85)*3,255 - ($E16-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="D16">
-        <f>IF($E16&lt;85,$E16*3,IF($E16&lt;170,255 - ($E16-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E16">
-        <f>255-A16</f>
+        <f t="shared" si="3"/>
         <v>241</v>
       </c>
     </row>
@@ -4029,19 +4030,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <f>IF($E17&lt;85,255-$E17*3,IF($E17&lt;170,0,($E17-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>210</v>
       </c>
       <c r="C17">
-        <f>IF($E17&lt;85,0,IF($E17&lt;170,($E17-85)*3,255 - ($E17-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="D17">
-        <f>IF($E17&lt;85,$E17*3,IF($E17&lt;170,255 - ($E17-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E17">
-        <f>255-A17</f>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
     </row>
@@ -4050,19 +4051,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <f>IF($E18&lt;85,255-$E18*3,IF($E18&lt;170,0,($E18-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>207</v>
       </c>
       <c r="C18">
-        <f>IF($E18&lt;85,0,IF($E18&lt;170,($E18-85)*3,255 - ($E18-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="D18">
-        <f>IF($E18&lt;85,$E18*3,IF($E18&lt;170,255 - ($E18-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E18">
-        <f>255-A18</f>
+        <f t="shared" si="3"/>
         <v>239</v>
       </c>
     </row>
@@ -4071,19 +4072,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <f>IF($E19&lt;85,255-$E19*3,IF($E19&lt;170,0,($E19-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>204</v>
       </c>
       <c r="C19">
-        <f>IF($E19&lt;85,0,IF($E19&lt;170,($E19-85)*3,255 - ($E19-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="D19">
-        <f>IF($E19&lt;85,$E19*3,IF($E19&lt;170,255 - ($E19-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E19">
-        <f>255-A19</f>
+        <f t="shared" si="3"/>
         <v>238</v>
       </c>
     </row>
@@ -4092,19 +4093,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <f>IF($E20&lt;85,255-$E20*3,IF($E20&lt;170,0,($E20-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>201</v>
       </c>
       <c r="C20">
-        <f>IF($E20&lt;85,0,IF($E20&lt;170,($E20-85)*3,255 - ($E20-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="D20">
-        <f>IF($E20&lt;85,$E20*3,IF($E20&lt;170,255 - ($E20-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E20">
-        <f>255-A20</f>
+        <f t="shared" si="3"/>
         <v>237</v>
       </c>
     </row>
@@ -4113,19 +4114,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <f>IF($E21&lt;85,255-$E21*3,IF($E21&lt;170,0,($E21-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>198</v>
       </c>
       <c r="C21">
-        <f>IF($E21&lt;85,0,IF($E21&lt;170,($E21-85)*3,255 - ($E21-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="D21">
-        <f>IF($E21&lt;85,$E21*3,IF($E21&lt;170,255 - ($E21-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E21">
-        <f>255-A21</f>
+        <f t="shared" si="3"/>
         <v>236</v>
       </c>
     </row>
@@ -4134,19 +4135,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <f>IF($E22&lt;85,255-$E22*3,IF($E22&lt;170,0,($E22-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>195</v>
       </c>
       <c r="C22">
-        <f>IF($E22&lt;85,0,IF($E22&lt;170,($E22-85)*3,255 - ($E22-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="D22">
-        <f>IF($E22&lt;85,$E22*3,IF($E22&lt;170,255 - ($E22-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E22">
-        <f>255-A22</f>
+        <f t="shared" si="3"/>
         <v>235</v>
       </c>
     </row>
@@ -4155,19 +4156,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <f>IF($E23&lt;85,255-$E23*3,IF($E23&lt;170,0,($E23-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>192</v>
       </c>
       <c r="C23">
-        <f>IF($E23&lt;85,0,IF($E23&lt;170,($E23-85)*3,255 - ($E23-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="D23">
-        <f>IF($E23&lt;85,$E23*3,IF($E23&lt;170,255 - ($E23-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E23">
-        <f>255-A23</f>
+        <f t="shared" si="3"/>
         <v>234</v>
       </c>
     </row>
@@ -4176,19 +4177,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <f>IF($E24&lt;85,255-$E24*3,IF($E24&lt;170,0,($E24-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>189</v>
       </c>
       <c r="C24">
-        <f>IF($E24&lt;85,0,IF($E24&lt;170,($E24-85)*3,255 - ($E24-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="D24">
-        <f>IF($E24&lt;85,$E24*3,IF($E24&lt;170,255 - ($E24-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E24">
-        <f>255-A24</f>
+        <f t="shared" si="3"/>
         <v>233</v>
       </c>
     </row>
@@ -4197,19 +4198,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <f>IF($E25&lt;85,255-$E25*3,IF($E25&lt;170,0,($E25-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>186</v>
       </c>
       <c r="C25">
-        <f>IF($E25&lt;85,0,IF($E25&lt;170,($E25-85)*3,255 - ($E25-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="D25">
-        <f>IF($E25&lt;85,$E25*3,IF($E25&lt;170,255 - ($E25-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E25">
-        <f>255-A25</f>
+        <f t="shared" si="3"/>
         <v>232</v>
       </c>
     </row>
@@ -4218,19 +4219,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <f>IF($E26&lt;85,255-$E26*3,IF($E26&lt;170,0,($E26-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>183</v>
       </c>
       <c r="C26">
-        <f>IF($E26&lt;85,0,IF($E26&lt;170,($E26-85)*3,255 - ($E26-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="D26">
-        <f>IF($E26&lt;85,$E26*3,IF($E26&lt;170,255 - ($E26-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E26">
-        <f>255-A26</f>
+        <f t="shared" si="3"/>
         <v>231</v>
       </c>
     </row>
@@ -4239,19 +4240,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <f>IF($E27&lt;85,255-$E27*3,IF($E27&lt;170,0,($E27-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="C27">
-        <f>IF($E27&lt;85,0,IF($E27&lt;170,($E27-85)*3,255 - ($E27-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="D27">
-        <f>IF($E27&lt;85,$E27*3,IF($E27&lt;170,255 - ($E27-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E27">
-        <f>255-A27</f>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
     </row>
@@ -4260,19 +4261,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <f>IF($E28&lt;85,255-$E28*3,IF($E28&lt;170,0,($E28-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>177</v>
       </c>
       <c r="C28">
-        <f>IF($E28&lt;85,0,IF($E28&lt;170,($E28-85)*3,255 - ($E28-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="D28">
-        <f>IF($E28&lt;85,$E28*3,IF($E28&lt;170,255 - ($E28-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E28">
-        <f>255-A28</f>
+        <f t="shared" si="3"/>
         <v>229</v>
       </c>
     </row>
@@ -4281,19 +4282,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <f>IF($E29&lt;85,255-$E29*3,IF($E29&lt;170,0,($E29-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>174</v>
       </c>
       <c r="C29">
-        <f>IF($E29&lt;85,0,IF($E29&lt;170,($E29-85)*3,255 - ($E29-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="D29">
-        <f>IF($E29&lt;85,$E29*3,IF($E29&lt;170,255 - ($E29-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E29">
-        <f>255-A29</f>
+        <f t="shared" si="3"/>
         <v>228</v>
       </c>
     </row>
@@ -4302,19 +4303,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <f>IF($E30&lt;85,255-$E30*3,IF($E30&lt;170,0,($E30-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>171</v>
       </c>
       <c r="C30">
-        <f>IF($E30&lt;85,0,IF($E30&lt;170,($E30-85)*3,255 - ($E30-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="D30">
-        <f>IF($E30&lt;85,$E30*3,IF($E30&lt;170,255 - ($E30-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E30">
-        <f>255-A30</f>
+        <f t="shared" si="3"/>
         <v>227</v>
       </c>
     </row>
@@ -4323,19 +4324,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <f>IF($E31&lt;85,255-$E31*3,IF($E31&lt;170,0,($E31-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>168</v>
       </c>
       <c r="C31">
-        <f>IF($E31&lt;85,0,IF($E31&lt;170,($E31-85)*3,255 - ($E31-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="D31">
-        <f>IF($E31&lt;85,$E31*3,IF($E31&lt;170,255 - ($E31-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E31">
-        <f>255-A31</f>
+        <f t="shared" si="3"/>
         <v>226</v>
       </c>
     </row>
@@ -4344,19 +4345,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <f>IF($E32&lt;85,255-$E32*3,IF($E32&lt;170,0,($E32-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>165</v>
       </c>
       <c r="C32">
-        <f>IF($E32&lt;85,0,IF($E32&lt;170,($E32-85)*3,255 - ($E32-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="D32">
-        <f>IF($E32&lt;85,$E32*3,IF($E32&lt;170,255 - ($E32-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E32">
-        <f>255-A32</f>
+        <f t="shared" si="3"/>
         <v>225</v>
       </c>
     </row>
@@ -4365,19 +4366,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <f>IF($E33&lt;85,255-$E33*3,IF($E33&lt;170,0,($E33-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>162</v>
       </c>
       <c r="C33">
-        <f>IF($E33&lt;85,0,IF($E33&lt;170,($E33-85)*3,255 - ($E33-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="D33">
-        <f>IF($E33&lt;85,$E33*3,IF($E33&lt;170,255 - ($E33-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E33">
-        <f>255-A33</f>
+        <f t="shared" si="3"/>
         <v>224</v>
       </c>
     </row>
@@ -4386,19 +4387,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <f>IF($E34&lt;85,255-$E34*3,IF($E34&lt;170,0,($E34-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>159</v>
       </c>
       <c r="C34">
-        <f>IF($E34&lt;85,0,IF($E34&lt;170,($E34-85)*3,255 - ($E34-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="D34">
-        <f>IF($E34&lt;85,$E34*3,IF($E34&lt;170,255 - ($E34-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E34">
-        <f>255-A34</f>
+        <f t="shared" si="3"/>
         <v>223</v>
       </c>
     </row>
@@ -4407,19 +4408,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <f>IF($E35&lt;85,255-$E35*3,IF($E35&lt;170,0,($E35-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>156</v>
       </c>
       <c r="C35">
-        <f>IF($E35&lt;85,0,IF($E35&lt;170,($E35-85)*3,255 - ($E35-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="D35">
-        <f>IF($E35&lt;85,$E35*3,IF($E35&lt;170,255 - ($E35-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E35">
-        <f>255-A35</f>
+        <f t="shared" si="3"/>
         <v>222</v>
       </c>
     </row>
@@ -4428,19 +4429,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <f>IF($E36&lt;85,255-$E36*3,IF($E36&lt;170,0,($E36-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>153</v>
       </c>
       <c r="C36">
-        <f>IF($E36&lt;85,0,IF($E36&lt;170,($E36-85)*3,255 - ($E36-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="D36">
-        <f>IF($E36&lt;85,$E36*3,IF($E36&lt;170,255 - ($E36-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E36">
-        <f>255-A36</f>
+        <f t="shared" si="3"/>
         <v>221</v>
       </c>
     </row>
@@ -4449,19 +4450,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <f>IF($E37&lt;85,255-$E37*3,IF($E37&lt;170,0,($E37-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="C37">
-        <f>IF($E37&lt;85,0,IF($E37&lt;170,($E37-85)*3,255 - ($E37-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="D37">
-        <f>IF($E37&lt;85,$E37*3,IF($E37&lt;170,255 - ($E37-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E37">
-        <f>255-A37</f>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
     </row>
@@ -4470,19 +4471,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <f>IF($E38&lt;85,255-$E38*3,IF($E38&lt;170,0,($E38-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>147</v>
       </c>
       <c r="C38">
-        <f>IF($E38&lt;85,0,IF($E38&lt;170,($E38-85)*3,255 - ($E38-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="D38">
-        <f>IF($E38&lt;85,$E38*3,IF($E38&lt;170,255 - ($E38-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E38">
-        <f>255-A38</f>
+        <f t="shared" si="3"/>
         <v>219</v>
       </c>
     </row>
@@ -4491,19 +4492,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <f>IF($E39&lt;85,255-$E39*3,IF($E39&lt;170,0,($E39-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>144</v>
       </c>
       <c r="C39">
-        <f>IF($E39&lt;85,0,IF($E39&lt;170,($E39-85)*3,255 - ($E39-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="D39">
-        <f>IF($E39&lt;85,$E39*3,IF($E39&lt;170,255 - ($E39-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E39">
-        <f>255-A39</f>
+        <f t="shared" si="3"/>
         <v>218</v>
       </c>
     </row>
@@ -4512,19 +4513,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <f>IF($E40&lt;85,255-$E40*3,IF($E40&lt;170,0,($E40-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>141</v>
       </c>
       <c r="C40">
-        <f>IF($E40&lt;85,0,IF($E40&lt;170,($E40-85)*3,255 - ($E40-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>114</v>
       </c>
       <c r="D40">
-        <f>IF($E40&lt;85,$E40*3,IF($E40&lt;170,255 - ($E40-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E40">
-        <f>255-A40</f>
+        <f t="shared" si="3"/>
         <v>217</v>
       </c>
     </row>
@@ -4533,19 +4534,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <f>IF($E41&lt;85,255-$E41*3,IF($E41&lt;170,0,($E41-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>138</v>
       </c>
       <c r="C41">
-        <f>IF($E41&lt;85,0,IF($E41&lt;170,($E41-85)*3,255 - ($E41-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>117</v>
       </c>
       <c r="D41">
-        <f>IF($E41&lt;85,$E41*3,IF($E41&lt;170,255 - ($E41-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E41">
-        <f>255-A41</f>
+        <f t="shared" si="3"/>
         <v>216</v>
       </c>
     </row>
@@ -4554,19 +4555,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <f>IF($E42&lt;85,255-$E42*3,IF($E42&lt;170,0,($E42-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>135</v>
       </c>
       <c r="C42">
-        <f>IF($E42&lt;85,0,IF($E42&lt;170,($E42-85)*3,255 - ($E42-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="D42">
-        <f>IF($E42&lt;85,$E42*3,IF($E42&lt;170,255 - ($E42-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E42">
-        <f>255-A42</f>
+        <f t="shared" si="3"/>
         <v>215</v>
       </c>
     </row>
@@ -4575,19 +4576,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <f>IF($E43&lt;85,255-$E43*3,IF($E43&lt;170,0,($E43-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>132</v>
       </c>
       <c r="C43">
-        <f>IF($E43&lt;85,0,IF($E43&lt;170,($E43-85)*3,255 - ($E43-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>123</v>
       </c>
       <c r="D43">
-        <f>IF($E43&lt;85,$E43*3,IF($E43&lt;170,255 - ($E43-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E43">
-        <f>255-A43</f>
+        <f t="shared" si="3"/>
         <v>214</v>
       </c>
     </row>
@@ -4596,19 +4597,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <f>IF($E44&lt;85,255-$E44*3,IF($E44&lt;170,0,($E44-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>129</v>
       </c>
       <c r="C44">
-        <f>IF($E44&lt;85,0,IF($E44&lt;170,($E44-85)*3,255 - ($E44-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="D44">
-        <f>IF($E44&lt;85,$E44*3,IF($E44&lt;170,255 - ($E44-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E44">
-        <f>255-A44</f>
+        <f t="shared" si="3"/>
         <v>213</v>
       </c>
     </row>
@@ -4617,19 +4618,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <f>IF($E45&lt;85,255-$E45*3,IF($E45&lt;170,0,($E45-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>126</v>
       </c>
       <c r="C45">
-        <f>IF($E45&lt;85,0,IF($E45&lt;170,($E45-85)*3,255 - ($E45-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>129</v>
       </c>
       <c r="D45">
-        <f>IF($E45&lt;85,$E45*3,IF($E45&lt;170,255 - ($E45-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E45">
-        <f>255-A45</f>
+        <f t="shared" si="3"/>
         <v>212</v>
       </c>
     </row>
@@ -4638,19 +4639,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <f>IF($E46&lt;85,255-$E46*3,IF($E46&lt;170,0,($E46-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>123</v>
       </c>
       <c r="C46">
-        <f>IF($E46&lt;85,0,IF($E46&lt;170,($E46-85)*3,255 - ($E46-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>132</v>
       </c>
       <c r="D46">
-        <f>IF($E46&lt;85,$E46*3,IF($E46&lt;170,255 - ($E46-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E46">
-        <f>255-A46</f>
+        <f t="shared" si="3"/>
         <v>211</v>
       </c>
     </row>
@@ -4659,19 +4660,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <f>IF($E47&lt;85,255-$E47*3,IF($E47&lt;170,0,($E47-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="C47">
-        <f>IF($E47&lt;85,0,IF($E47&lt;170,($E47-85)*3,255 - ($E47-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>135</v>
       </c>
       <c r="D47">
-        <f>IF($E47&lt;85,$E47*3,IF($E47&lt;170,255 - ($E47-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E47">
-        <f>255-A47</f>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
     </row>
@@ -4680,19 +4681,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <f>IF($E48&lt;85,255-$E48*3,IF($E48&lt;170,0,($E48-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>117</v>
       </c>
       <c r="C48">
-        <f>IF($E48&lt;85,0,IF($E48&lt;170,($E48-85)*3,255 - ($E48-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>138</v>
       </c>
       <c r="D48">
-        <f>IF($E48&lt;85,$E48*3,IF($E48&lt;170,255 - ($E48-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E48">
-        <f>255-A48</f>
+        <f t="shared" si="3"/>
         <v>209</v>
       </c>
     </row>
@@ -4701,19 +4702,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <f>IF($E49&lt;85,255-$E49*3,IF($E49&lt;170,0,($E49-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>114</v>
       </c>
       <c r="C49">
-        <f>IF($E49&lt;85,0,IF($E49&lt;170,($E49-85)*3,255 - ($E49-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>141</v>
       </c>
       <c r="D49">
-        <f>IF($E49&lt;85,$E49*3,IF($E49&lt;170,255 - ($E49-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E49">
-        <f>255-A49</f>
+        <f t="shared" si="3"/>
         <v>208</v>
       </c>
     </row>
@@ -4722,19 +4723,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <f>IF($E50&lt;85,255-$E50*3,IF($E50&lt;170,0,($E50-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>111</v>
       </c>
       <c r="C50">
-        <f>IF($E50&lt;85,0,IF($E50&lt;170,($E50-85)*3,255 - ($E50-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>144</v>
       </c>
       <c r="D50">
-        <f>IF($E50&lt;85,$E50*3,IF($E50&lt;170,255 - ($E50-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E50">
-        <f>255-A50</f>
+        <f t="shared" si="3"/>
         <v>207</v>
       </c>
     </row>
@@ -4743,19 +4744,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <f>IF($E51&lt;85,255-$E51*3,IF($E51&lt;170,0,($E51-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>108</v>
       </c>
       <c r="C51">
-        <f>IF($E51&lt;85,0,IF($E51&lt;170,($E51-85)*3,255 - ($E51-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>147</v>
       </c>
       <c r="D51">
-        <f>IF($E51&lt;85,$E51*3,IF($E51&lt;170,255 - ($E51-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E51">
-        <f>255-A51</f>
+        <f t="shared" si="3"/>
         <v>206</v>
       </c>
     </row>
@@ -4764,19 +4765,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <f>IF($E52&lt;85,255-$E52*3,IF($E52&lt;170,0,($E52-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
       <c r="C52">
-        <f>IF($E52&lt;85,0,IF($E52&lt;170,($E52-85)*3,255 - ($E52-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="D52">
-        <f>IF($E52&lt;85,$E52*3,IF($E52&lt;170,255 - ($E52-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E52">
-        <f>255-A52</f>
+        <f t="shared" si="3"/>
         <v>205</v>
       </c>
     </row>
@@ -4785,19 +4786,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <f>IF($E53&lt;85,255-$E53*3,IF($E53&lt;170,0,($E53-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>102</v>
       </c>
       <c r="C53">
-        <f>IF($E53&lt;85,0,IF($E53&lt;170,($E53-85)*3,255 - ($E53-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>153</v>
       </c>
       <c r="D53">
-        <f>IF($E53&lt;85,$E53*3,IF($E53&lt;170,255 - ($E53-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E53">
-        <f>255-A53</f>
+        <f t="shared" si="3"/>
         <v>204</v>
       </c>
     </row>
@@ -4806,19 +4807,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <f>IF($E54&lt;85,255-$E54*3,IF($E54&lt;170,0,($E54-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
       <c r="C54">
-        <f>IF($E54&lt;85,0,IF($E54&lt;170,($E54-85)*3,255 - ($E54-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>156</v>
       </c>
       <c r="D54">
-        <f>IF($E54&lt;85,$E54*3,IF($E54&lt;170,255 - ($E54-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E54">
-        <f>255-A54</f>
+        <f t="shared" si="3"/>
         <v>203</v>
       </c>
     </row>
@@ -4827,19 +4828,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <f>IF($E55&lt;85,255-$E55*3,IF($E55&lt;170,0,($E55-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
       <c r="C55">
-        <f>IF($E55&lt;85,0,IF($E55&lt;170,($E55-85)*3,255 - ($E55-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>159</v>
       </c>
       <c r="D55">
-        <f>IF($E55&lt;85,$E55*3,IF($E55&lt;170,255 - ($E55-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E55">
-        <f>255-A55</f>
+        <f t="shared" si="3"/>
         <v>202</v>
       </c>
     </row>
@@ -4848,19 +4849,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <f>IF($E56&lt;85,255-$E56*3,IF($E56&lt;170,0,($E56-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>93</v>
       </c>
       <c r="C56">
-        <f>IF($E56&lt;85,0,IF($E56&lt;170,($E56-85)*3,255 - ($E56-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>162</v>
       </c>
       <c r="D56">
-        <f>IF($E56&lt;85,$E56*3,IF($E56&lt;170,255 - ($E56-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E56">
-        <f>255-A56</f>
+        <f t="shared" si="3"/>
         <v>201</v>
       </c>
     </row>
@@ -4869,19 +4870,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <f>IF($E57&lt;85,255-$E57*3,IF($E57&lt;170,0,($E57-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="C57">
-        <f>IF($E57&lt;85,0,IF($E57&lt;170,($E57-85)*3,255 - ($E57-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>165</v>
       </c>
       <c r="D57">
-        <f>IF($E57&lt;85,$E57*3,IF($E57&lt;170,255 - ($E57-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E57">
-        <f>255-A57</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
     </row>
@@ -4890,19 +4891,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <f>IF($E58&lt;85,255-$E58*3,IF($E58&lt;170,0,($E58-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>87</v>
       </c>
       <c r="C58">
-        <f>IF($E58&lt;85,0,IF($E58&lt;170,($E58-85)*3,255 - ($E58-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>168</v>
       </c>
       <c r="D58">
-        <f>IF($E58&lt;85,$E58*3,IF($E58&lt;170,255 - ($E58-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E58">
-        <f>255-A58</f>
+        <f t="shared" si="3"/>
         <v>199</v>
       </c>
     </row>
@@ -4911,19 +4912,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <f>IF($E59&lt;85,255-$E59*3,IF($E59&lt;170,0,($E59-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="C59">
-        <f>IF($E59&lt;85,0,IF($E59&lt;170,($E59-85)*3,255 - ($E59-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>171</v>
       </c>
       <c r="D59">
-        <f>IF($E59&lt;85,$E59*3,IF($E59&lt;170,255 - ($E59-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E59">
-        <f>255-A59</f>
+        <f t="shared" si="3"/>
         <v>198</v>
       </c>
     </row>
@@ -4932,19 +4933,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <f>IF($E60&lt;85,255-$E60*3,IF($E60&lt;170,0,($E60-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
       <c r="C60">
-        <f>IF($E60&lt;85,0,IF($E60&lt;170,($E60-85)*3,255 - ($E60-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>174</v>
       </c>
       <c r="D60">
-        <f>IF($E60&lt;85,$E60*3,IF($E60&lt;170,255 - ($E60-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E60">
-        <f>255-A60</f>
+        <f t="shared" si="3"/>
         <v>197</v>
       </c>
     </row>
@@ -4953,19 +4954,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <f>IF($E61&lt;85,255-$E61*3,IF($E61&lt;170,0,($E61-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="C61">
-        <f>IF($E61&lt;85,0,IF($E61&lt;170,($E61-85)*3,255 - ($E61-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>177</v>
       </c>
       <c r="D61">
-        <f>IF($E61&lt;85,$E61*3,IF($E61&lt;170,255 - ($E61-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E61">
-        <f>255-A61</f>
+        <f t="shared" si="3"/>
         <v>196</v>
       </c>
     </row>
@@ -4974,19 +4975,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <f>IF($E62&lt;85,255-$E62*3,IF($E62&lt;170,0,($E62-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="C62">
-        <f>IF($E62&lt;85,0,IF($E62&lt;170,($E62-85)*3,255 - ($E62-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="D62">
-        <f>IF($E62&lt;85,$E62*3,IF($E62&lt;170,255 - ($E62-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E62">
-        <f>255-A62</f>
+        <f t="shared" si="3"/>
         <v>195</v>
       </c>
     </row>
@@ -4995,19 +4996,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <f>IF($E63&lt;85,255-$E63*3,IF($E63&lt;170,0,($E63-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="C63">
-        <f>IF($E63&lt;85,0,IF($E63&lt;170,($E63-85)*3,255 - ($E63-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>183</v>
       </c>
       <c r="D63">
-        <f>IF($E63&lt;85,$E63*3,IF($E63&lt;170,255 - ($E63-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E63">
-        <f>255-A63</f>
+        <f t="shared" si="3"/>
         <v>194</v>
       </c>
     </row>
@@ -5016,19 +5017,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <f>IF($E64&lt;85,255-$E64*3,IF($E64&lt;170,0,($E64-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="C64">
-        <f>IF($E64&lt;85,0,IF($E64&lt;170,($E64-85)*3,255 - ($E64-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>186</v>
       </c>
       <c r="D64">
-        <f>IF($E64&lt;85,$E64*3,IF($E64&lt;170,255 - ($E64-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E64">
-        <f>255-A64</f>
+        <f t="shared" si="3"/>
         <v>193</v>
       </c>
     </row>
@@ -5037,19 +5038,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <f>IF($E65&lt;85,255-$E65*3,IF($E65&lt;170,0,($E65-170) * 3))</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="C65">
-        <f>IF($E65&lt;85,0,IF($E65&lt;170,($E65-85)*3,255 - ($E65-170) * 3))</f>
+        <f t="shared" si="1"/>
         <v>189</v>
       </c>
       <c r="D65">
-        <f>IF($E65&lt;85,$E65*3,IF($E65&lt;170,255 - ($E65-85) * 3,0))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E65">
-        <f>255-A65</f>
+        <f t="shared" si="3"/>
         <v>192</v>
       </c>
     </row>
@@ -5058,19 +5059,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <f>IF($E66&lt;85,255-$E66*3,IF($E66&lt;170,0,($E66-170) * 3))</f>
+        <f t="shared" ref="B66:B129" si="4">IF($E66&lt;85,255-$E66*3,IF($E66&lt;170,0,($E66-170) * 3))</f>
         <v>63</v>
       </c>
       <c r="C66">
-        <f>IF($E66&lt;85,0,IF($E66&lt;170,($E66-85)*3,255 - ($E66-170) * 3))</f>
+        <f t="shared" ref="C66:C129" si="5">IF($E66&lt;85,0,IF($E66&lt;170,($E66-85)*3,255 - ($E66-170) * 3))</f>
         <v>192</v>
       </c>
       <c r="D66">
-        <f>IF($E66&lt;85,$E66*3,IF($E66&lt;170,255 - ($E66-85) * 3,0))</f>
+        <f t="shared" ref="D66:D129" si="6">IF($E66&lt;85,$E66*3,IF($E66&lt;170,255 - ($E66-85) * 3,0))</f>
         <v>0</v>
       </c>
       <c r="E66">
-        <f>255-A66</f>
+        <f t="shared" ref="E66:E129" si="7">255-A66</f>
         <v>191</v>
       </c>
     </row>
@@ -5079,19 +5080,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <f>IF($E67&lt;85,255-$E67*3,IF($E67&lt;170,0,($E67-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="C67">
-        <f>IF($E67&lt;85,0,IF($E67&lt;170,($E67-85)*3,255 - ($E67-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>195</v>
       </c>
       <c r="D67">
-        <f>IF($E67&lt;85,$E67*3,IF($E67&lt;170,255 - ($E67-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E67">
-        <f>255-A67</f>
+        <f t="shared" si="7"/>
         <v>190</v>
       </c>
     </row>
@@ -5100,19 +5101,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <f>IF($E68&lt;85,255-$E68*3,IF($E68&lt;170,0,($E68-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="C68">
-        <f>IF($E68&lt;85,0,IF($E68&lt;170,($E68-85)*3,255 - ($E68-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>198</v>
       </c>
       <c r="D68">
-        <f>IF($E68&lt;85,$E68*3,IF($E68&lt;170,255 - ($E68-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E68">
-        <f>255-A68</f>
+        <f t="shared" si="7"/>
         <v>189</v>
       </c>
     </row>
@@ -5121,19 +5122,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <f>IF($E69&lt;85,255-$E69*3,IF($E69&lt;170,0,($E69-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="C69">
-        <f>IF($E69&lt;85,0,IF($E69&lt;170,($E69-85)*3,255 - ($E69-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>201</v>
       </c>
       <c r="D69">
-        <f>IF($E69&lt;85,$E69*3,IF($E69&lt;170,255 - ($E69-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E69">
-        <f>255-A69</f>
+        <f t="shared" si="7"/>
         <v>188</v>
       </c>
     </row>
@@ -5142,19 +5143,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <f>IF($E70&lt;85,255-$E70*3,IF($E70&lt;170,0,($E70-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="C70">
-        <f>IF($E70&lt;85,0,IF($E70&lt;170,($E70-85)*3,255 - ($E70-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>204</v>
       </c>
       <c r="D70">
-        <f>IF($E70&lt;85,$E70*3,IF($E70&lt;170,255 - ($E70-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E70">
-        <f>255-A70</f>
+        <f t="shared" si="7"/>
         <v>187</v>
       </c>
     </row>
@@ -5163,19 +5164,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <f>IF($E71&lt;85,255-$E71*3,IF($E71&lt;170,0,($E71-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="C71">
-        <f>IF($E71&lt;85,0,IF($E71&lt;170,($E71-85)*3,255 - ($E71-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>207</v>
       </c>
       <c r="D71">
-        <f>IF($E71&lt;85,$E71*3,IF($E71&lt;170,255 - ($E71-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E71">
-        <f>255-A71</f>
+        <f t="shared" si="7"/>
         <v>186</v>
       </c>
     </row>
@@ -5184,19 +5185,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <f>IF($E72&lt;85,255-$E72*3,IF($E72&lt;170,0,($E72-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="C72">
-        <f>IF($E72&lt;85,0,IF($E72&lt;170,($E72-85)*3,255 - ($E72-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>210</v>
       </c>
       <c r="D72">
-        <f>IF($E72&lt;85,$E72*3,IF($E72&lt;170,255 - ($E72-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E72">
-        <f>255-A72</f>
+        <f t="shared" si="7"/>
         <v>185</v>
       </c>
     </row>
@@ -5205,19 +5206,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <f>IF($E73&lt;85,255-$E73*3,IF($E73&lt;170,0,($E73-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="C73">
-        <f>IF($E73&lt;85,0,IF($E73&lt;170,($E73-85)*3,255 - ($E73-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>213</v>
       </c>
       <c r="D73">
-        <f>IF($E73&lt;85,$E73*3,IF($E73&lt;170,255 - ($E73-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E73">
-        <f>255-A73</f>
+        <f t="shared" si="7"/>
         <v>184</v>
       </c>
     </row>
@@ -5226,19 +5227,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <f>IF($E74&lt;85,255-$E74*3,IF($E74&lt;170,0,($E74-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="C74">
-        <f>IF($E74&lt;85,0,IF($E74&lt;170,($E74-85)*3,255 - ($E74-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>216</v>
       </c>
       <c r="D74">
-        <f>IF($E74&lt;85,$E74*3,IF($E74&lt;170,255 - ($E74-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E74">
-        <f>255-A74</f>
+        <f t="shared" si="7"/>
         <v>183</v>
       </c>
     </row>
@@ -5247,19 +5248,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <f>IF($E75&lt;85,255-$E75*3,IF($E75&lt;170,0,($E75-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="C75">
-        <f>IF($E75&lt;85,0,IF($E75&lt;170,($E75-85)*3,255 - ($E75-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>219</v>
       </c>
       <c r="D75">
-        <f>IF($E75&lt;85,$E75*3,IF($E75&lt;170,255 - ($E75-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E75">
-        <f>255-A75</f>
+        <f t="shared" si="7"/>
         <v>182</v>
       </c>
     </row>
@@ -5268,19 +5269,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <f>IF($E76&lt;85,255-$E76*3,IF($E76&lt;170,0,($E76-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="C76">
-        <f>IF($E76&lt;85,0,IF($E76&lt;170,($E76-85)*3,255 - ($E76-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>222</v>
       </c>
       <c r="D76">
-        <f>IF($E76&lt;85,$E76*3,IF($E76&lt;170,255 - ($E76-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E76">
-        <f>255-A76</f>
+        <f t="shared" si="7"/>
         <v>181</v>
       </c>
     </row>
@@ -5289,19 +5290,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <f>IF($E77&lt;85,255-$E77*3,IF($E77&lt;170,0,($E77-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="C77">
-        <f>IF($E77&lt;85,0,IF($E77&lt;170,($E77-85)*3,255 - ($E77-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>225</v>
       </c>
       <c r="D77">
-        <f>IF($E77&lt;85,$E77*3,IF($E77&lt;170,255 - ($E77-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E77">
-        <f>255-A77</f>
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
     </row>
@@ -5310,19 +5311,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <f>IF($E78&lt;85,255-$E78*3,IF($E78&lt;170,0,($E78-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="C78">
-        <f>IF($E78&lt;85,0,IF($E78&lt;170,($E78-85)*3,255 - ($E78-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>228</v>
       </c>
       <c r="D78">
-        <f>IF($E78&lt;85,$E78*3,IF($E78&lt;170,255 - ($E78-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E78">
-        <f>255-A78</f>
+        <f t="shared" si="7"/>
         <v>179</v>
       </c>
     </row>
@@ -5331,19 +5332,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <f>IF($E79&lt;85,255-$E79*3,IF($E79&lt;170,0,($E79-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="C79">
-        <f>IF($E79&lt;85,0,IF($E79&lt;170,($E79-85)*3,255 - ($E79-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>231</v>
       </c>
       <c r="D79">
-        <f>IF($E79&lt;85,$E79*3,IF($E79&lt;170,255 - ($E79-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E79">
-        <f>255-A79</f>
+        <f t="shared" si="7"/>
         <v>178</v>
       </c>
     </row>
@@ -5352,19 +5353,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <f>IF($E80&lt;85,255-$E80*3,IF($E80&lt;170,0,($E80-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="C80">
-        <f>IF($E80&lt;85,0,IF($E80&lt;170,($E80-85)*3,255 - ($E80-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>234</v>
       </c>
       <c r="D80">
-        <f>IF($E80&lt;85,$E80*3,IF($E80&lt;170,255 - ($E80-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E80">
-        <f>255-A80</f>
+        <f t="shared" si="7"/>
         <v>177</v>
       </c>
     </row>
@@ -5373,19 +5374,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <f>IF($E81&lt;85,255-$E81*3,IF($E81&lt;170,0,($E81-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="C81">
-        <f>IF($E81&lt;85,0,IF($E81&lt;170,($E81-85)*3,255 - ($E81-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>237</v>
       </c>
       <c r="D81">
-        <f>IF($E81&lt;85,$E81*3,IF($E81&lt;170,255 - ($E81-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E81">
-        <f>255-A81</f>
+        <f t="shared" si="7"/>
         <v>176</v>
       </c>
     </row>
@@ -5394,19 +5395,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <f>IF($E82&lt;85,255-$E82*3,IF($E82&lt;170,0,($E82-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="C82">
-        <f>IF($E82&lt;85,0,IF($E82&lt;170,($E82-85)*3,255 - ($E82-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>240</v>
       </c>
       <c r="D82">
-        <f>IF($E82&lt;85,$E82*3,IF($E82&lt;170,255 - ($E82-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E82">
-        <f>255-A82</f>
+        <f t="shared" si="7"/>
         <v>175</v>
       </c>
     </row>
@@ -5415,19 +5416,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <f>IF($E83&lt;85,255-$E83*3,IF($E83&lt;170,0,($E83-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="C83">
-        <f>IF($E83&lt;85,0,IF($E83&lt;170,($E83-85)*3,255 - ($E83-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>243</v>
       </c>
       <c r="D83">
-        <f>IF($E83&lt;85,$E83*3,IF($E83&lt;170,255 - ($E83-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E83">
-        <f>255-A83</f>
+        <f t="shared" si="7"/>
         <v>174</v>
       </c>
     </row>
@@ -5436,19 +5437,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <f>IF($E84&lt;85,255-$E84*3,IF($E84&lt;170,0,($E84-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="C84">
-        <f>IF($E84&lt;85,0,IF($E84&lt;170,($E84-85)*3,255 - ($E84-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>246</v>
       </c>
       <c r="D84">
-        <f>IF($E84&lt;85,$E84*3,IF($E84&lt;170,255 - ($E84-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E84">
-        <f>255-A84</f>
+        <f t="shared" si="7"/>
         <v>173</v>
       </c>
     </row>
@@ -5457,19 +5458,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <f>IF($E85&lt;85,255-$E85*3,IF($E85&lt;170,0,($E85-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="C85">
-        <f>IF($E85&lt;85,0,IF($E85&lt;170,($E85-85)*3,255 - ($E85-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>249</v>
       </c>
       <c r="D85">
-        <f>IF($E85&lt;85,$E85*3,IF($E85&lt;170,255 - ($E85-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E85">
-        <f>255-A85</f>
+        <f t="shared" si="7"/>
         <v>172</v>
       </c>
     </row>
@@ -5478,19 +5479,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <f>IF($E86&lt;85,255-$E86*3,IF($E86&lt;170,0,($E86-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="C86">
-        <f>IF($E86&lt;85,0,IF($E86&lt;170,($E86-85)*3,255 - ($E86-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>252</v>
       </c>
       <c r="D86">
-        <f>IF($E86&lt;85,$E86*3,IF($E86&lt;170,255 - ($E86-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E86">
-        <f>255-A86</f>
+        <f t="shared" si="7"/>
         <v>171</v>
       </c>
     </row>
@@ -5499,19 +5500,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <f>IF($E87&lt;85,255-$E87*3,IF($E87&lt;170,0,($E87-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C87">
-        <f>IF($E87&lt;85,0,IF($E87&lt;170,($E87-85)*3,255 - ($E87-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>255</v>
       </c>
       <c r="D87">
-        <f>IF($E87&lt;85,$E87*3,IF($E87&lt;170,255 - ($E87-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E87">
-        <f>255-A87</f>
+        <f t="shared" si="7"/>
         <v>170</v>
       </c>
     </row>
@@ -5520,19 +5521,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <f>IF($E88&lt;85,255-$E88*3,IF($E88&lt;170,0,($E88-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C88">
-        <f>IF($E88&lt;85,0,IF($E88&lt;170,($E88-85)*3,255 - ($E88-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>252</v>
       </c>
       <c r="D88">
-        <f>IF($E88&lt;85,$E88*3,IF($E88&lt;170,255 - ($E88-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="E88">
-        <f>255-A88</f>
+        <f t="shared" si="7"/>
         <v>169</v>
       </c>
     </row>
@@ -5541,19 +5542,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <f>IF($E89&lt;85,255-$E89*3,IF($E89&lt;170,0,($E89-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C89">
-        <f>IF($E89&lt;85,0,IF($E89&lt;170,($E89-85)*3,255 - ($E89-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>249</v>
       </c>
       <c r="D89">
-        <f>IF($E89&lt;85,$E89*3,IF($E89&lt;170,255 - ($E89-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="E89">
-        <f>255-A89</f>
+        <f t="shared" si="7"/>
         <v>168</v>
       </c>
     </row>
@@ -5562,19 +5563,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <f>IF($E90&lt;85,255-$E90*3,IF($E90&lt;170,0,($E90-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C90">
-        <f>IF($E90&lt;85,0,IF($E90&lt;170,($E90-85)*3,255 - ($E90-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>246</v>
       </c>
       <c r="D90">
-        <f>IF($E90&lt;85,$E90*3,IF($E90&lt;170,255 - ($E90-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="E90">
-        <f>255-A90</f>
+        <f t="shared" si="7"/>
         <v>167</v>
       </c>
     </row>
@@ -5583,19 +5584,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <f>IF($E91&lt;85,255-$E91*3,IF($E91&lt;170,0,($E91-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C91">
-        <f>IF($E91&lt;85,0,IF($E91&lt;170,($E91-85)*3,255 - ($E91-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>243</v>
       </c>
       <c r="D91">
-        <f>IF($E91&lt;85,$E91*3,IF($E91&lt;170,255 - ($E91-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="E91">
-        <f>255-A91</f>
+        <f t="shared" si="7"/>
         <v>166</v>
       </c>
     </row>
@@ -5604,19 +5605,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <f>IF($E92&lt;85,255-$E92*3,IF($E92&lt;170,0,($E92-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C92">
-        <f>IF($E92&lt;85,0,IF($E92&lt;170,($E92-85)*3,255 - ($E92-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>240</v>
       </c>
       <c r="D92">
-        <f>IF($E92&lt;85,$E92*3,IF($E92&lt;170,255 - ($E92-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="E92">
-        <f>255-A92</f>
+        <f t="shared" si="7"/>
         <v>165</v>
       </c>
     </row>
@@ -5625,19 +5626,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <f>IF($E93&lt;85,255-$E93*3,IF($E93&lt;170,0,($E93-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C93">
-        <f>IF($E93&lt;85,0,IF($E93&lt;170,($E93-85)*3,255 - ($E93-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>237</v>
       </c>
       <c r="D93">
-        <f>IF($E93&lt;85,$E93*3,IF($E93&lt;170,255 - ($E93-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="E93">
-        <f>255-A93</f>
+        <f t="shared" si="7"/>
         <v>164</v>
       </c>
     </row>
@@ -5646,19 +5647,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <f>IF($E94&lt;85,255-$E94*3,IF($E94&lt;170,0,($E94-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C94">
-        <f>IF($E94&lt;85,0,IF($E94&lt;170,($E94-85)*3,255 - ($E94-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>234</v>
       </c>
       <c r="D94">
-        <f>IF($E94&lt;85,$E94*3,IF($E94&lt;170,255 - ($E94-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="E94">
-        <f>255-A94</f>
+        <f t="shared" si="7"/>
         <v>163</v>
       </c>
     </row>
@@ -5667,19 +5668,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <f>IF($E95&lt;85,255-$E95*3,IF($E95&lt;170,0,($E95-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C95">
-        <f>IF($E95&lt;85,0,IF($E95&lt;170,($E95-85)*3,255 - ($E95-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>231</v>
       </c>
       <c r="D95">
-        <f>IF($E95&lt;85,$E95*3,IF($E95&lt;170,255 - ($E95-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="E95">
-        <f>255-A95</f>
+        <f t="shared" si="7"/>
         <v>162</v>
       </c>
     </row>
@@ -5688,19 +5689,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <f>IF($E96&lt;85,255-$E96*3,IF($E96&lt;170,0,($E96-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C96">
-        <f>IF($E96&lt;85,0,IF($E96&lt;170,($E96-85)*3,255 - ($E96-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>228</v>
       </c>
       <c r="D96">
-        <f>IF($E96&lt;85,$E96*3,IF($E96&lt;170,255 - ($E96-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="E96">
-        <f>255-A96</f>
+        <f t="shared" si="7"/>
         <v>161</v>
       </c>
     </row>
@@ -5709,19 +5710,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <f>IF($E97&lt;85,255-$E97*3,IF($E97&lt;170,0,($E97-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C97">
-        <f>IF($E97&lt;85,0,IF($E97&lt;170,($E97-85)*3,255 - ($E97-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>225</v>
       </c>
       <c r="D97">
-        <f>IF($E97&lt;85,$E97*3,IF($E97&lt;170,255 - ($E97-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="E97">
-        <f>255-A97</f>
+        <f t="shared" si="7"/>
         <v>160</v>
       </c>
     </row>
@@ -5730,19 +5731,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <f>IF($E98&lt;85,255-$E98*3,IF($E98&lt;170,0,($E98-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C98">
-        <f>IF($E98&lt;85,0,IF($E98&lt;170,($E98-85)*3,255 - ($E98-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>222</v>
       </c>
       <c r="D98">
-        <f>IF($E98&lt;85,$E98*3,IF($E98&lt;170,255 - ($E98-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="E98">
-        <f>255-A98</f>
+        <f t="shared" si="7"/>
         <v>159</v>
       </c>
     </row>
@@ -5751,19 +5752,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <f>IF($E99&lt;85,255-$E99*3,IF($E99&lt;170,0,($E99-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C99">
-        <f>IF($E99&lt;85,0,IF($E99&lt;170,($E99-85)*3,255 - ($E99-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>219</v>
       </c>
       <c r="D99">
-        <f>IF($E99&lt;85,$E99*3,IF($E99&lt;170,255 - ($E99-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="E99">
-        <f>255-A99</f>
+        <f t="shared" si="7"/>
         <v>158</v>
       </c>
     </row>
@@ -5772,19 +5773,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <f>IF($E100&lt;85,255-$E100*3,IF($E100&lt;170,0,($E100-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C100">
-        <f>IF($E100&lt;85,0,IF($E100&lt;170,($E100-85)*3,255 - ($E100-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>216</v>
       </c>
       <c r="D100">
-        <f>IF($E100&lt;85,$E100*3,IF($E100&lt;170,255 - ($E100-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
       <c r="E100">
-        <f>255-A100</f>
+        <f t="shared" si="7"/>
         <v>157</v>
       </c>
     </row>
@@ -5793,19 +5794,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <f>IF($E101&lt;85,255-$E101*3,IF($E101&lt;170,0,($E101-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C101">
-        <f>IF($E101&lt;85,0,IF($E101&lt;170,($E101-85)*3,255 - ($E101-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>213</v>
       </c>
       <c r="D101">
-        <f>IF($E101&lt;85,$E101*3,IF($E101&lt;170,255 - ($E101-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
       <c r="E101">
-        <f>255-A101</f>
+        <f t="shared" si="7"/>
         <v>156</v>
       </c>
     </row>
@@ -5814,19 +5815,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <f>IF($E102&lt;85,255-$E102*3,IF($E102&lt;170,0,($E102-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C102">
-        <f>IF($E102&lt;85,0,IF($E102&lt;170,($E102-85)*3,255 - ($E102-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>210</v>
       </c>
       <c r="D102">
-        <f>IF($E102&lt;85,$E102*3,IF($E102&lt;170,255 - ($E102-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="E102">
-        <f>255-A102</f>
+        <f t="shared" si="7"/>
         <v>155</v>
       </c>
     </row>
@@ -5835,19 +5836,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <f>IF($E103&lt;85,255-$E103*3,IF($E103&lt;170,0,($E103-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C103">
-        <f>IF($E103&lt;85,0,IF($E103&lt;170,($E103-85)*3,255 - ($E103-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>207</v>
       </c>
       <c r="D103">
-        <f>IF($E103&lt;85,$E103*3,IF($E103&lt;170,255 - ($E103-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
       <c r="E103">
-        <f>255-A103</f>
+        <f t="shared" si="7"/>
         <v>154</v>
       </c>
     </row>
@@ -5856,19 +5857,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <f>IF($E104&lt;85,255-$E104*3,IF($E104&lt;170,0,($E104-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C104">
-        <f>IF($E104&lt;85,0,IF($E104&lt;170,($E104-85)*3,255 - ($E104-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>204</v>
       </c>
       <c r="D104">
-        <f>IF($E104&lt;85,$E104*3,IF($E104&lt;170,255 - ($E104-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>51</v>
       </c>
       <c r="E104">
-        <f>255-A104</f>
+        <f t="shared" si="7"/>
         <v>153</v>
       </c>
     </row>
@@ -5877,19 +5878,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <f>IF($E105&lt;85,255-$E105*3,IF($E105&lt;170,0,($E105-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C105">
-        <f>IF($E105&lt;85,0,IF($E105&lt;170,($E105-85)*3,255 - ($E105-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>201</v>
       </c>
       <c r="D105">
-        <f>IF($E105&lt;85,$E105*3,IF($E105&lt;170,255 - ($E105-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="E105">
-        <f>255-A105</f>
+        <f t="shared" si="7"/>
         <v>152</v>
       </c>
     </row>
@@ -5898,19 +5899,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <f>IF($E106&lt;85,255-$E106*3,IF($E106&lt;170,0,($E106-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C106">
-        <f>IF($E106&lt;85,0,IF($E106&lt;170,($E106-85)*3,255 - ($E106-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>198</v>
       </c>
       <c r="D106">
-        <f>IF($E106&lt;85,$E106*3,IF($E106&lt;170,255 - ($E106-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
       <c r="E106">
-        <f>255-A106</f>
+        <f t="shared" si="7"/>
         <v>151</v>
       </c>
     </row>
@@ -5919,19 +5920,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <f>IF($E107&lt;85,255-$E107*3,IF($E107&lt;170,0,($E107-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C107">
-        <f>IF($E107&lt;85,0,IF($E107&lt;170,($E107-85)*3,255 - ($E107-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>195</v>
       </c>
       <c r="D107">
-        <f>IF($E107&lt;85,$E107*3,IF($E107&lt;170,255 - ($E107-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="E107">
-        <f>255-A107</f>
+        <f t="shared" si="7"/>
         <v>150</v>
       </c>
     </row>
@@ -5940,19 +5941,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <f>IF($E108&lt;85,255-$E108*3,IF($E108&lt;170,0,($E108-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C108">
-        <f>IF($E108&lt;85,0,IF($E108&lt;170,($E108-85)*3,255 - ($E108-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>192</v>
       </c>
       <c r="D108">
-        <f>IF($E108&lt;85,$E108*3,IF($E108&lt;170,255 - ($E108-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="E108">
-        <f>255-A108</f>
+        <f t="shared" si="7"/>
         <v>149</v>
       </c>
     </row>
@@ -5961,19 +5962,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <f>IF($E109&lt;85,255-$E109*3,IF($E109&lt;170,0,($E109-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C109">
-        <f>IF($E109&lt;85,0,IF($E109&lt;170,($E109-85)*3,255 - ($E109-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>189</v>
       </c>
       <c r="D109">
-        <f>IF($E109&lt;85,$E109*3,IF($E109&lt;170,255 - ($E109-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="E109">
-        <f>255-A109</f>
+        <f t="shared" si="7"/>
         <v>148</v>
       </c>
     </row>
@@ -5982,19 +5983,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <f>IF($E110&lt;85,255-$E110*3,IF($E110&lt;170,0,($E110-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C110">
-        <f>IF($E110&lt;85,0,IF($E110&lt;170,($E110-85)*3,255 - ($E110-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>186</v>
       </c>
       <c r="D110">
-        <f>IF($E110&lt;85,$E110*3,IF($E110&lt;170,255 - ($E110-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>69</v>
       </c>
       <c r="E110">
-        <f>255-A110</f>
+        <f t="shared" si="7"/>
         <v>147</v>
       </c>
     </row>
@@ -6003,19 +6004,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <f>IF($E111&lt;85,255-$E111*3,IF($E111&lt;170,0,($E111-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C111">
-        <f>IF($E111&lt;85,0,IF($E111&lt;170,($E111-85)*3,255 - ($E111-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>183</v>
       </c>
       <c r="D111">
-        <f>IF($E111&lt;85,$E111*3,IF($E111&lt;170,255 - ($E111-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="E111">
-        <f>255-A111</f>
+        <f t="shared" si="7"/>
         <v>146</v>
       </c>
     </row>
@@ -6024,19 +6025,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <f>IF($E112&lt;85,255-$E112*3,IF($E112&lt;170,0,($E112-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C112">
-        <f>IF($E112&lt;85,0,IF($E112&lt;170,($E112-85)*3,255 - ($E112-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="D112">
-        <f>IF($E112&lt;85,$E112*3,IF($E112&lt;170,255 - ($E112-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
       <c r="E112">
-        <f>255-A112</f>
+        <f t="shared" si="7"/>
         <v>145</v>
       </c>
     </row>
@@ -6045,19 +6046,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <f>IF($E113&lt;85,255-$E113*3,IF($E113&lt;170,0,($E113-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C113">
-        <f>IF($E113&lt;85,0,IF($E113&lt;170,($E113-85)*3,255 - ($E113-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>177</v>
       </c>
       <c r="D113">
-        <f>IF($E113&lt;85,$E113*3,IF($E113&lt;170,255 - ($E113-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>78</v>
       </c>
       <c r="E113">
-        <f>255-A113</f>
+        <f t="shared" si="7"/>
         <v>144</v>
       </c>
     </row>
@@ -6066,19 +6067,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <f>IF($E114&lt;85,255-$E114*3,IF($E114&lt;170,0,($E114-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C114">
-        <f>IF($E114&lt;85,0,IF($E114&lt;170,($E114-85)*3,255 - ($E114-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>174</v>
       </c>
       <c r="D114">
-        <f>IF($E114&lt;85,$E114*3,IF($E114&lt;170,255 - ($E114-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>81</v>
       </c>
       <c r="E114">
-        <f>255-A114</f>
+        <f t="shared" si="7"/>
         <v>143</v>
       </c>
     </row>
@@ -6087,19 +6088,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <f>IF($E115&lt;85,255-$E115*3,IF($E115&lt;170,0,($E115-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C115">
-        <f>IF($E115&lt;85,0,IF($E115&lt;170,($E115-85)*3,255 - ($E115-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>171</v>
       </c>
       <c r="D115">
-        <f>IF($E115&lt;85,$E115*3,IF($E115&lt;170,255 - ($E115-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>84</v>
       </c>
       <c r="E115">
-        <f>255-A115</f>
+        <f t="shared" si="7"/>
         <v>142</v>
       </c>
     </row>
@@ -6108,19 +6109,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <f>IF($E116&lt;85,255-$E116*3,IF($E116&lt;170,0,($E116-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C116">
-        <f>IF($E116&lt;85,0,IF($E116&lt;170,($E116-85)*3,255 - ($E116-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>168</v>
       </c>
       <c r="D116">
-        <f>IF($E116&lt;85,$E116*3,IF($E116&lt;170,255 - ($E116-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>87</v>
       </c>
       <c r="E116">
-        <f>255-A116</f>
+        <f t="shared" si="7"/>
         <v>141</v>
       </c>
     </row>
@@ -6129,19 +6130,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <f>IF($E117&lt;85,255-$E117*3,IF($E117&lt;170,0,($E117-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C117">
-        <f>IF($E117&lt;85,0,IF($E117&lt;170,($E117-85)*3,255 - ($E117-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>165</v>
       </c>
       <c r="D117">
-        <f>IF($E117&lt;85,$E117*3,IF($E117&lt;170,255 - ($E117-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="E117">
-        <f>255-A117</f>
+        <f t="shared" si="7"/>
         <v>140</v>
       </c>
     </row>
@@ -6150,19 +6151,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <f>IF($E118&lt;85,255-$E118*3,IF($E118&lt;170,0,($E118-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C118">
-        <f>IF($E118&lt;85,0,IF($E118&lt;170,($E118-85)*3,255 - ($E118-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>162</v>
       </c>
       <c r="D118">
-        <f>IF($E118&lt;85,$E118*3,IF($E118&lt;170,255 - ($E118-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>93</v>
       </c>
       <c r="E118">
-        <f>255-A118</f>
+        <f t="shared" si="7"/>
         <v>139</v>
       </c>
     </row>
@@ -6171,19 +6172,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <f>IF($E119&lt;85,255-$E119*3,IF($E119&lt;170,0,($E119-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C119">
-        <f>IF($E119&lt;85,0,IF($E119&lt;170,($E119-85)*3,255 - ($E119-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>159</v>
       </c>
       <c r="D119">
-        <f>IF($E119&lt;85,$E119*3,IF($E119&lt;170,255 - ($E119-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>96</v>
       </c>
       <c r="E119">
-        <f>255-A119</f>
+        <f t="shared" si="7"/>
         <v>138</v>
       </c>
     </row>
@@ -6192,19 +6193,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <f>IF($E120&lt;85,255-$E120*3,IF($E120&lt;170,0,($E120-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C120">
-        <f>IF($E120&lt;85,0,IF($E120&lt;170,($E120-85)*3,255 - ($E120-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>156</v>
       </c>
       <c r="D120">
-        <f>IF($E120&lt;85,$E120*3,IF($E120&lt;170,255 - ($E120-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>99</v>
       </c>
       <c r="E120">
-        <f>255-A120</f>
+        <f t="shared" si="7"/>
         <v>137</v>
       </c>
     </row>
@@ -6213,19 +6214,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <f>IF($E121&lt;85,255-$E121*3,IF($E121&lt;170,0,($E121-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C121">
-        <f>IF($E121&lt;85,0,IF($E121&lt;170,($E121-85)*3,255 - ($E121-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>153</v>
       </c>
       <c r="D121">
-        <f>IF($E121&lt;85,$E121*3,IF($E121&lt;170,255 - ($E121-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>102</v>
       </c>
       <c r="E121">
-        <f>255-A121</f>
+        <f t="shared" si="7"/>
         <v>136</v>
       </c>
     </row>
@@ -6234,19 +6235,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <f>IF($E122&lt;85,255-$E122*3,IF($E122&lt;170,0,($E122-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C122">
-        <f>IF($E122&lt;85,0,IF($E122&lt;170,($E122-85)*3,255 - ($E122-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="D122">
-        <f>IF($E122&lt;85,$E122*3,IF($E122&lt;170,255 - ($E122-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>105</v>
       </c>
       <c r="E122">
-        <f>255-A122</f>
+        <f t="shared" si="7"/>
         <v>135</v>
       </c>
     </row>
@@ -6255,19 +6256,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <f>IF($E123&lt;85,255-$E123*3,IF($E123&lt;170,0,($E123-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C123">
-        <f>IF($E123&lt;85,0,IF($E123&lt;170,($E123-85)*3,255 - ($E123-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>147</v>
       </c>
       <c r="D123">
-        <f>IF($E123&lt;85,$E123*3,IF($E123&lt;170,255 - ($E123-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>108</v>
       </c>
       <c r="E123">
-        <f>255-A123</f>
+        <f t="shared" si="7"/>
         <v>134</v>
       </c>
     </row>
@@ -6276,19 +6277,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <f>IF($E124&lt;85,255-$E124*3,IF($E124&lt;170,0,($E124-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C124">
-        <f>IF($E124&lt;85,0,IF($E124&lt;170,($E124-85)*3,255 - ($E124-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>144</v>
       </c>
       <c r="D124">
-        <f>IF($E124&lt;85,$E124*3,IF($E124&lt;170,255 - ($E124-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>111</v>
       </c>
       <c r="E124">
-        <f>255-A124</f>
+        <f t="shared" si="7"/>
         <v>133</v>
       </c>
     </row>
@@ -6297,19 +6298,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <f>IF($E125&lt;85,255-$E125*3,IF($E125&lt;170,0,($E125-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C125">
-        <f>IF($E125&lt;85,0,IF($E125&lt;170,($E125-85)*3,255 - ($E125-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>141</v>
       </c>
       <c r="D125">
-        <f>IF($E125&lt;85,$E125*3,IF($E125&lt;170,255 - ($E125-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>114</v>
       </c>
       <c r="E125">
-        <f>255-A125</f>
+        <f t="shared" si="7"/>
         <v>132</v>
       </c>
     </row>
@@ -6318,19 +6319,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <f>IF($E126&lt;85,255-$E126*3,IF($E126&lt;170,0,($E126-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C126">
-        <f>IF($E126&lt;85,0,IF($E126&lt;170,($E126-85)*3,255 - ($E126-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>138</v>
       </c>
       <c r="D126">
-        <f>IF($E126&lt;85,$E126*3,IF($E126&lt;170,255 - ($E126-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>117</v>
       </c>
       <c r="E126">
-        <f>255-A126</f>
+        <f t="shared" si="7"/>
         <v>131</v>
       </c>
     </row>
@@ -6339,19 +6340,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <f>IF($E127&lt;85,255-$E127*3,IF($E127&lt;170,0,($E127-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C127">
-        <f>IF($E127&lt;85,0,IF($E127&lt;170,($E127-85)*3,255 - ($E127-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>135</v>
       </c>
       <c r="D127">
-        <f>IF($E127&lt;85,$E127*3,IF($E127&lt;170,255 - ($E127-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>120</v>
       </c>
       <c r="E127">
-        <f>255-A127</f>
+        <f t="shared" si="7"/>
         <v>130</v>
       </c>
     </row>
@@ -6360,19 +6361,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <f>IF($E128&lt;85,255-$E128*3,IF($E128&lt;170,0,($E128-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C128">
-        <f>IF($E128&lt;85,0,IF($E128&lt;170,($E128-85)*3,255 - ($E128-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>132</v>
       </c>
       <c r="D128">
-        <f>IF($E128&lt;85,$E128*3,IF($E128&lt;170,255 - ($E128-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>123</v>
       </c>
       <c r="E128">
-        <f>255-A128</f>
+        <f t="shared" si="7"/>
         <v>129</v>
       </c>
     </row>
@@ -6381,19 +6382,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <f>IF($E129&lt;85,255-$E129*3,IF($E129&lt;170,0,($E129-170) * 3))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="C129">
-        <f>IF($E129&lt;85,0,IF($E129&lt;170,($E129-85)*3,255 - ($E129-170) * 3))</f>
+        <f t="shared" si="5"/>
         <v>129</v>
       </c>
       <c r="D129">
-        <f>IF($E129&lt;85,$E129*3,IF($E129&lt;170,255 - ($E129-85) * 3,0))</f>
+        <f t="shared" si="6"/>
         <v>126</v>
       </c>
       <c r="E129">
-        <f>255-A129</f>
+        <f t="shared" si="7"/>
         <v>128</v>
       </c>
     </row>
@@ -6402,19 +6403,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <f>IF($E130&lt;85,255-$E130*3,IF($E130&lt;170,0,($E130-170) * 3))</f>
+        <f t="shared" ref="B130:B193" si="8">IF($E130&lt;85,255-$E130*3,IF($E130&lt;170,0,($E130-170) * 3))</f>
         <v>0</v>
       </c>
       <c r="C130">
-        <f>IF($E130&lt;85,0,IF($E130&lt;170,($E130-85)*3,255 - ($E130-170) * 3))</f>
+        <f t="shared" ref="C130:C193" si="9">IF($E130&lt;85,0,IF($E130&lt;170,($E130-85)*3,255 - ($E130-170) * 3))</f>
         <v>126</v>
       </c>
       <c r="D130">
-        <f>IF($E130&lt;85,$E130*3,IF($E130&lt;170,255 - ($E130-85) * 3,0))</f>
+        <f t="shared" ref="D130:D193" si="10">IF($E130&lt;85,$E130*3,IF($E130&lt;170,255 - ($E130-85) * 3,0))</f>
         <v>129</v>
       </c>
       <c r="E130">
-        <f>255-A130</f>
+        <f t="shared" ref="E130:E193" si="11">255-A130</f>
         <v>127</v>
       </c>
     </row>
@@ -6423,19 +6424,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <f>IF($E131&lt;85,255-$E131*3,IF($E131&lt;170,0,($E131-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C131">
-        <f>IF($E131&lt;85,0,IF($E131&lt;170,($E131-85)*3,255 - ($E131-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>123</v>
       </c>
       <c r="D131">
-        <f>IF($E131&lt;85,$E131*3,IF($E131&lt;170,255 - ($E131-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>132</v>
       </c>
       <c r="E131">
-        <f>255-A131</f>
+        <f t="shared" si="11"/>
         <v>126</v>
       </c>
     </row>
@@ -6444,19 +6445,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <f>IF($E132&lt;85,255-$E132*3,IF($E132&lt;170,0,($E132-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C132">
-        <f>IF($E132&lt;85,0,IF($E132&lt;170,($E132-85)*3,255 - ($E132-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>120</v>
       </c>
       <c r="D132">
-        <f>IF($E132&lt;85,$E132*3,IF($E132&lt;170,255 - ($E132-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>135</v>
       </c>
       <c r="E132">
-        <f>255-A132</f>
+        <f t="shared" si="11"/>
         <v>125</v>
       </c>
     </row>
@@ -6465,19 +6466,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <f>IF($E133&lt;85,255-$E133*3,IF($E133&lt;170,0,($E133-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C133">
-        <f>IF($E133&lt;85,0,IF($E133&lt;170,($E133-85)*3,255 - ($E133-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>117</v>
       </c>
       <c r="D133">
-        <f>IF($E133&lt;85,$E133*3,IF($E133&lt;170,255 - ($E133-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>138</v>
       </c>
       <c r="E133">
-        <f>255-A133</f>
+        <f t="shared" si="11"/>
         <v>124</v>
       </c>
     </row>
@@ -6486,19 +6487,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <f>IF($E134&lt;85,255-$E134*3,IF($E134&lt;170,0,($E134-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C134">
-        <f>IF($E134&lt;85,0,IF($E134&lt;170,($E134-85)*3,255 - ($E134-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>114</v>
       </c>
       <c r="D134">
-        <f>IF($E134&lt;85,$E134*3,IF($E134&lt;170,255 - ($E134-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>141</v>
       </c>
       <c r="E134">
-        <f>255-A134</f>
+        <f t="shared" si="11"/>
         <v>123</v>
       </c>
     </row>
@@ -6507,19 +6508,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <f>IF($E135&lt;85,255-$E135*3,IF($E135&lt;170,0,($E135-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C135">
-        <f>IF($E135&lt;85,0,IF($E135&lt;170,($E135-85)*3,255 - ($E135-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>111</v>
       </c>
       <c r="D135">
-        <f>IF($E135&lt;85,$E135*3,IF($E135&lt;170,255 - ($E135-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>144</v>
       </c>
       <c r="E135">
-        <f>255-A135</f>
+        <f t="shared" si="11"/>
         <v>122</v>
       </c>
     </row>
@@ -6528,19 +6529,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <f>IF($E136&lt;85,255-$E136*3,IF($E136&lt;170,0,($E136-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C136">
-        <f>IF($E136&lt;85,0,IF($E136&lt;170,($E136-85)*3,255 - ($E136-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>108</v>
       </c>
       <c r="D136">
-        <f>IF($E136&lt;85,$E136*3,IF($E136&lt;170,255 - ($E136-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>147</v>
       </c>
       <c r="E136">
-        <f>255-A136</f>
+        <f t="shared" si="11"/>
         <v>121</v>
       </c>
     </row>
@@ -6549,19 +6550,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <f>IF($E137&lt;85,255-$E137*3,IF($E137&lt;170,0,($E137-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C137">
-        <f>IF($E137&lt;85,0,IF($E137&lt;170,($E137-85)*3,255 - ($E137-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>105</v>
       </c>
       <c r="D137">
-        <f>IF($E137&lt;85,$E137*3,IF($E137&lt;170,255 - ($E137-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>150</v>
       </c>
       <c r="E137">
-        <f>255-A137</f>
+        <f t="shared" si="11"/>
         <v>120</v>
       </c>
     </row>
@@ -6570,19 +6571,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <f>IF($E138&lt;85,255-$E138*3,IF($E138&lt;170,0,($E138-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C138">
-        <f>IF($E138&lt;85,0,IF($E138&lt;170,($E138-85)*3,255 - ($E138-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>102</v>
       </c>
       <c r="D138">
-        <f>IF($E138&lt;85,$E138*3,IF($E138&lt;170,255 - ($E138-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>153</v>
       </c>
       <c r="E138">
-        <f>255-A138</f>
+        <f t="shared" si="11"/>
         <v>119</v>
       </c>
     </row>
@@ -6591,19 +6592,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <f>IF($E139&lt;85,255-$E139*3,IF($E139&lt;170,0,($E139-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C139">
-        <f>IF($E139&lt;85,0,IF($E139&lt;170,($E139-85)*3,255 - ($E139-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>99</v>
       </c>
       <c r="D139">
-        <f>IF($E139&lt;85,$E139*3,IF($E139&lt;170,255 - ($E139-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>156</v>
       </c>
       <c r="E139">
-        <f>255-A139</f>
+        <f t="shared" si="11"/>
         <v>118</v>
       </c>
     </row>
@@ -6612,19 +6613,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <f>IF($E140&lt;85,255-$E140*3,IF($E140&lt;170,0,($E140-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C140">
-        <f>IF($E140&lt;85,0,IF($E140&lt;170,($E140-85)*3,255 - ($E140-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>96</v>
       </c>
       <c r="D140">
-        <f>IF($E140&lt;85,$E140*3,IF($E140&lt;170,255 - ($E140-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>159</v>
       </c>
       <c r="E140">
-        <f>255-A140</f>
+        <f t="shared" si="11"/>
         <v>117</v>
       </c>
     </row>
@@ -6633,19 +6634,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <f>IF($E141&lt;85,255-$E141*3,IF($E141&lt;170,0,($E141-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C141">
-        <f>IF($E141&lt;85,0,IF($E141&lt;170,($E141-85)*3,255 - ($E141-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>93</v>
       </c>
       <c r="D141">
-        <f>IF($E141&lt;85,$E141*3,IF($E141&lt;170,255 - ($E141-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>162</v>
       </c>
       <c r="E141">
-        <f>255-A141</f>
+        <f t="shared" si="11"/>
         <v>116</v>
       </c>
     </row>
@@ -6654,19 +6655,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <f>IF($E142&lt;85,255-$E142*3,IF($E142&lt;170,0,($E142-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C142">
-        <f>IF($E142&lt;85,0,IF($E142&lt;170,($E142-85)*3,255 - ($E142-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>90</v>
       </c>
       <c r="D142">
-        <f>IF($E142&lt;85,$E142*3,IF($E142&lt;170,255 - ($E142-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>165</v>
       </c>
       <c r="E142">
-        <f>255-A142</f>
+        <f t="shared" si="11"/>
         <v>115</v>
       </c>
     </row>
@@ -6675,19 +6676,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <f>IF($E143&lt;85,255-$E143*3,IF($E143&lt;170,0,($E143-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C143">
-        <f>IF($E143&lt;85,0,IF($E143&lt;170,($E143-85)*3,255 - ($E143-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>87</v>
       </c>
       <c r="D143">
-        <f>IF($E143&lt;85,$E143*3,IF($E143&lt;170,255 - ($E143-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>168</v>
       </c>
       <c r="E143">
-        <f>255-A143</f>
+        <f t="shared" si="11"/>
         <v>114</v>
       </c>
     </row>
@@ -6696,19 +6697,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <f>IF($E144&lt;85,255-$E144*3,IF($E144&lt;170,0,($E144-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C144">
-        <f>IF($E144&lt;85,0,IF($E144&lt;170,($E144-85)*3,255 - ($E144-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>84</v>
       </c>
       <c r="D144">
-        <f>IF($E144&lt;85,$E144*3,IF($E144&lt;170,255 - ($E144-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>171</v>
       </c>
       <c r="E144">
-        <f>255-A144</f>
+        <f t="shared" si="11"/>
         <v>113</v>
       </c>
     </row>
@@ -6717,19 +6718,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <f>IF($E145&lt;85,255-$E145*3,IF($E145&lt;170,0,($E145-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C145">
-        <f>IF($E145&lt;85,0,IF($E145&lt;170,($E145-85)*3,255 - ($E145-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>81</v>
       </c>
       <c r="D145">
-        <f>IF($E145&lt;85,$E145*3,IF($E145&lt;170,255 - ($E145-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>174</v>
       </c>
       <c r="E145">
-        <f>255-A145</f>
+        <f t="shared" si="11"/>
         <v>112</v>
       </c>
     </row>
@@ -6738,19 +6739,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <f>IF($E146&lt;85,255-$E146*3,IF($E146&lt;170,0,($E146-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C146">
-        <f>IF($E146&lt;85,0,IF($E146&lt;170,($E146-85)*3,255 - ($E146-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>78</v>
       </c>
       <c r="D146">
-        <f>IF($E146&lt;85,$E146*3,IF($E146&lt;170,255 - ($E146-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>177</v>
       </c>
       <c r="E146">
-        <f>255-A146</f>
+        <f t="shared" si="11"/>
         <v>111</v>
       </c>
     </row>
@@ -6759,19 +6760,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <f>IF($E147&lt;85,255-$E147*3,IF($E147&lt;170,0,($E147-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C147">
-        <f>IF($E147&lt;85,0,IF($E147&lt;170,($E147-85)*3,255 - ($E147-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>75</v>
       </c>
       <c r="D147">
-        <f>IF($E147&lt;85,$E147*3,IF($E147&lt;170,255 - ($E147-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>180</v>
       </c>
       <c r="E147">
-        <f>255-A147</f>
+        <f t="shared" si="11"/>
         <v>110</v>
       </c>
     </row>
@@ -6780,19 +6781,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <f>IF($E148&lt;85,255-$E148*3,IF($E148&lt;170,0,($E148-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C148">
-        <f>IF($E148&lt;85,0,IF($E148&lt;170,($E148-85)*3,255 - ($E148-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>72</v>
       </c>
       <c r="D148">
-        <f>IF($E148&lt;85,$E148*3,IF($E148&lt;170,255 - ($E148-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>183</v>
       </c>
       <c r="E148">
-        <f>255-A148</f>
+        <f t="shared" si="11"/>
         <v>109</v>
       </c>
     </row>
@@ -6801,19 +6802,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <f>IF($E149&lt;85,255-$E149*3,IF($E149&lt;170,0,($E149-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C149">
-        <f>IF($E149&lt;85,0,IF($E149&lt;170,($E149-85)*3,255 - ($E149-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>69</v>
       </c>
       <c r="D149">
-        <f>IF($E149&lt;85,$E149*3,IF($E149&lt;170,255 - ($E149-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>186</v>
       </c>
       <c r="E149">
-        <f>255-A149</f>
+        <f t="shared" si="11"/>
         <v>108</v>
       </c>
     </row>
@@ -6822,19 +6823,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <f>IF($E150&lt;85,255-$E150*3,IF($E150&lt;170,0,($E150-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C150">
-        <f>IF($E150&lt;85,0,IF($E150&lt;170,($E150-85)*3,255 - ($E150-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>66</v>
       </c>
       <c r="D150">
-        <f>IF($E150&lt;85,$E150*3,IF($E150&lt;170,255 - ($E150-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>189</v>
       </c>
       <c r="E150">
-        <f>255-A150</f>
+        <f t="shared" si="11"/>
         <v>107</v>
       </c>
     </row>
@@ -6843,19 +6844,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <f>IF($E151&lt;85,255-$E151*3,IF($E151&lt;170,0,($E151-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C151">
-        <f>IF($E151&lt;85,0,IF($E151&lt;170,($E151-85)*3,255 - ($E151-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>63</v>
       </c>
       <c r="D151">
-        <f>IF($E151&lt;85,$E151*3,IF($E151&lt;170,255 - ($E151-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>192</v>
       </c>
       <c r="E151">
-        <f>255-A151</f>
+        <f t="shared" si="11"/>
         <v>106</v>
       </c>
     </row>
@@ -6864,19 +6865,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <f>IF($E152&lt;85,255-$E152*3,IF($E152&lt;170,0,($E152-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C152">
-        <f>IF($E152&lt;85,0,IF($E152&lt;170,($E152-85)*3,255 - ($E152-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="D152">
-        <f>IF($E152&lt;85,$E152*3,IF($E152&lt;170,255 - ($E152-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>195</v>
       </c>
       <c r="E152">
-        <f>255-A152</f>
+        <f t="shared" si="11"/>
         <v>105</v>
       </c>
     </row>
@@ -6885,19 +6886,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <f>IF($E153&lt;85,255-$E153*3,IF($E153&lt;170,0,($E153-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C153">
-        <f>IF($E153&lt;85,0,IF($E153&lt;170,($E153-85)*3,255 - ($E153-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>57</v>
       </c>
       <c r="D153">
-        <f>IF($E153&lt;85,$E153*3,IF($E153&lt;170,255 - ($E153-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>198</v>
       </c>
       <c r="E153">
-        <f>255-A153</f>
+        <f t="shared" si="11"/>
         <v>104</v>
       </c>
     </row>
@@ -6906,19 +6907,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <f>IF($E154&lt;85,255-$E154*3,IF($E154&lt;170,0,($E154-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C154">
-        <f>IF($E154&lt;85,0,IF($E154&lt;170,($E154-85)*3,255 - ($E154-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>54</v>
       </c>
       <c r="D154">
-        <f>IF($E154&lt;85,$E154*3,IF($E154&lt;170,255 - ($E154-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>201</v>
       </c>
       <c r="E154">
-        <f>255-A154</f>
+        <f t="shared" si="11"/>
         <v>103</v>
       </c>
     </row>
@@ -6927,19 +6928,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <f>IF($E155&lt;85,255-$E155*3,IF($E155&lt;170,0,($E155-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C155">
-        <f>IF($E155&lt;85,0,IF($E155&lt;170,($E155-85)*3,255 - ($E155-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>51</v>
       </c>
       <c r="D155">
-        <f>IF($E155&lt;85,$E155*3,IF($E155&lt;170,255 - ($E155-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>204</v>
       </c>
       <c r="E155">
-        <f>255-A155</f>
+        <f t="shared" si="11"/>
         <v>102</v>
       </c>
     </row>
@@ -6948,19 +6949,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <f>IF($E156&lt;85,255-$E156*3,IF($E156&lt;170,0,($E156-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C156">
-        <f>IF($E156&lt;85,0,IF($E156&lt;170,($E156-85)*3,255 - ($E156-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
       <c r="D156">
-        <f>IF($E156&lt;85,$E156*3,IF($E156&lt;170,255 - ($E156-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>207</v>
       </c>
       <c r="E156">
-        <f>255-A156</f>
+        <f t="shared" si="11"/>
         <v>101</v>
       </c>
     </row>
@@ -6969,19 +6970,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <f>IF($E157&lt;85,255-$E157*3,IF($E157&lt;170,0,($E157-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C157">
-        <f>IF($E157&lt;85,0,IF($E157&lt;170,($E157-85)*3,255 - ($E157-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="D157">
-        <f>IF($E157&lt;85,$E157*3,IF($E157&lt;170,255 - ($E157-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>210</v>
       </c>
       <c r="E157">
-        <f>255-A157</f>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
     </row>
@@ -6990,19 +6991,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <f>IF($E158&lt;85,255-$E158*3,IF($E158&lt;170,0,($E158-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C158">
-        <f>IF($E158&lt;85,0,IF($E158&lt;170,($E158-85)*3,255 - ($E158-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>42</v>
       </c>
       <c r="D158">
-        <f>IF($E158&lt;85,$E158*3,IF($E158&lt;170,255 - ($E158-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>213</v>
       </c>
       <c r="E158">
-        <f>255-A158</f>
+        <f t="shared" si="11"/>
         <v>99</v>
       </c>
     </row>
@@ -7011,19 +7012,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <f>IF($E159&lt;85,255-$E159*3,IF($E159&lt;170,0,($E159-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C159">
-        <f>IF($E159&lt;85,0,IF($E159&lt;170,($E159-85)*3,255 - ($E159-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>39</v>
       </c>
       <c r="D159">
-        <f>IF($E159&lt;85,$E159*3,IF($E159&lt;170,255 - ($E159-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>216</v>
       </c>
       <c r="E159">
-        <f>255-A159</f>
+        <f t="shared" si="11"/>
         <v>98</v>
       </c>
     </row>
@@ -7032,19 +7033,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <f>IF($E160&lt;85,255-$E160*3,IF($E160&lt;170,0,($E160-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C160">
-        <f>IF($E160&lt;85,0,IF($E160&lt;170,($E160-85)*3,255 - ($E160-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
       <c r="D160">
-        <f>IF($E160&lt;85,$E160*3,IF($E160&lt;170,255 - ($E160-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>219</v>
       </c>
       <c r="E160">
-        <f>255-A160</f>
+        <f t="shared" si="11"/>
         <v>97</v>
       </c>
     </row>
@@ -7053,19 +7054,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <f>IF($E161&lt;85,255-$E161*3,IF($E161&lt;170,0,($E161-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C161">
-        <f>IF($E161&lt;85,0,IF($E161&lt;170,($E161-85)*3,255 - ($E161-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>33</v>
       </c>
       <c r="D161">
-        <f>IF($E161&lt;85,$E161*3,IF($E161&lt;170,255 - ($E161-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>222</v>
       </c>
       <c r="E161">
-        <f>255-A161</f>
+        <f t="shared" si="11"/>
         <v>96</v>
       </c>
     </row>
@@ -7074,19 +7075,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <f>IF($E162&lt;85,255-$E162*3,IF($E162&lt;170,0,($E162-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C162">
-        <f>IF($E162&lt;85,0,IF($E162&lt;170,($E162-85)*3,255 - ($E162-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="D162">
-        <f>IF($E162&lt;85,$E162*3,IF($E162&lt;170,255 - ($E162-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>225</v>
       </c>
       <c r="E162">
-        <f>255-A162</f>
+        <f t="shared" si="11"/>
         <v>95</v>
       </c>
     </row>
@@ -7095,19 +7096,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <f>IF($E163&lt;85,255-$E163*3,IF($E163&lt;170,0,($E163-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C163">
-        <f>IF($E163&lt;85,0,IF($E163&lt;170,($E163-85)*3,255 - ($E163-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="D163">
-        <f>IF($E163&lt;85,$E163*3,IF($E163&lt;170,255 - ($E163-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>228</v>
       </c>
       <c r="E163">
-        <f>255-A163</f>
+        <f t="shared" si="11"/>
         <v>94</v>
       </c>
     </row>
@@ -7116,19 +7117,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <f>IF($E164&lt;85,255-$E164*3,IF($E164&lt;170,0,($E164-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C164">
-        <f>IF($E164&lt;85,0,IF($E164&lt;170,($E164-85)*3,255 - ($E164-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="D164">
-        <f>IF($E164&lt;85,$E164*3,IF($E164&lt;170,255 - ($E164-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>231</v>
       </c>
       <c r="E164">
-        <f>255-A164</f>
+        <f t="shared" si="11"/>
         <v>93</v>
       </c>
     </row>
@@ -7137,19 +7138,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <f>IF($E165&lt;85,255-$E165*3,IF($E165&lt;170,0,($E165-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C165">
-        <f>IF($E165&lt;85,0,IF($E165&lt;170,($E165-85)*3,255 - ($E165-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="D165">
-        <f>IF($E165&lt;85,$E165*3,IF($E165&lt;170,255 - ($E165-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>234</v>
       </c>
       <c r="E165">
-        <f>255-A165</f>
+        <f t="shared" si="11"/>
         <v>92</v>
       </c>
     </row>
@@ -7158,19 +7159,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <f>IF($E166&lt;85,255-$E166*3,IF($E166&lt;170,0,($E166-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C166">
-        <f>IF($E166&lt;85,0,IF($E166&lt;170,($E166-85)*3,255 - ($E166-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="D166">
-        <f>IF($E166&lt;85,$E166*3,IF($E166&lt;170,255 - ($E166-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>237</v>
       </c>
       <c r="E166">
-        <f>255-A166</f>
+        <f t="shared" si="11"/>
         <v>91</v>
       </c>
     </row>
@@ -7179,19 +7180,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <f>IF($E167&lt;85,255-$E167*3,IF($E167&lt;170,0,($E167-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C167">
-        <f>IF($E167&lt;85,0,IF($E167&lt;170,($E167-85)*3,255 - ($E167-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="D167">
-        <f>IF($E167&lt;85,$E167*3,IF($E167&lt;170,255 - ($E167-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>240</v>
       </c>
       <c r="E167">
-        <f>255-A167</f>
+        <f t="shared" si="11"/>
         <v>90</v>
       </c>
     </row>
@@ -7200,19 +7201,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <f>IF($E168&lt;85,255-$E168*3,IF($E168&lt;170,0,($E168-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C168">
-        <f>IF($E168&lt;85,0,IF($E168&lt;170,($E168-85)*3,255 - ($E168-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="D168">
-        <f>IF($E168&lt;85,$E168*3,IF($E168&lt;170,255 - ($E168-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>243</v>
       </c>
       <c r="E168">
-        <f>255-A168</f>
+        <f t="shared" si="11"/>
         <v>89</v>
       </c>
     </row>
@@ -7221,19 +7222,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <f>IF($E169&lt;85,255-$E169*3,IF($E169&lt;170,0,($E169-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C169">
-        <f>IF($E169&lt;85,0,IF($E169&lt;170,($E169-85)*3,255 - ($E169-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="D169">
-        <f>IF($E169&lt;85,$E169*3,IF($E169&lt;170,255 - ($E169-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>246</v>
       </c>
       <c r="E169">
-        <f>255-A169</f>
+        <f t="shared" si="11"/>
         <v>88</v>
       </c>
     </row>
@@ -7242,19 +7243,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <f>IF($E170&lt;85,255-$E170*3,IF($E170&lt;170,0,($E170-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C170">
-        <f>IF($E170&lt;85,0,IF($E170&lt;170,($E170-85)*3,255 - ($E170-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="D170">
-        <f>IF($E170&lt;85,$E170*3,IF($E170&lt;170,255 - ($E170-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>249</v>
       </c>
       <c r="E170">
-        <f>255-A170</f>
+        <f t="shared" si="11"/>
         <v>87</v>
       </c>
     </row>
@@ -7263,19 +7264,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <f>IF($E171&lt;85,255-$E171*3,IF($E171&lt;170,0,($E171-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C171">
-        <f>IF($E171&lt;85,0,IF($E171&lt;170,($E171-85)*3,255 - ($E171-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="D171">
-        <f>IF($E171&lt;85,$E171*3,IF($E171&lt;170,255 - ($E171-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>252</v>
       </c>
       <c r="E171">
-        <f>255-A171</f>
+        <f t="shared" si="11"/>
         <v>86</v>
       </c>
     </row>
@@ -7284,19 +7285,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <f>IF($E172&lt;85,255-$E172*3,IF($E172&lt;170,0,($E172-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C172">
-        <f>IF($E172&lt;85,0,IF($E172&lt;170,($E172-85)*3,255 - ($E172-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D172">
-        <f>IF($E172&lt;85,$E172*3,IF($E172&lt;170,255 - ($E172-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>255</v>
       </c>
       <c r="E172">
-        <f>255-A172</f>
+        <f t="shared" si="11"/>
         <v>85</v>
       </c>
     </row>
@@ -7305,19 +7306,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <f>IF($E173&lt;85,255-$E173*3,IF($E173&lt;170,0,($E173-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="C173">
-        <f>IF($E173&lt;85,0,IF($E173&lt;170,($E173-85)*3,255 - ($E173-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D173">
-        <f>IF($E173&lt;85,$E173*3,IF($E173&lt;170,255 - ($E173-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>252</v>
       </c>
       <c r="E173">
-        <f>255-A173</f>
+        <f t="shared" si="11"/>
         <v>84</v>
       </c>
     </row>
@@ -7326,19 +7327,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <f>IF($E174&lt;85,255-$E174*3,IF($E174&lt;170,0,($E174-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="C174">
-        <f>IF($E174&lt;85,0,IF($E174&lt;170,($E174-85)*3,255 - ($E174-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D174">
-        <f>IF($E174&lt;85,$E174*3,IF($E174&lt;170,255 - ($E174-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>249</v>
       </c>
       <c r="E174">
-        <f>255-A174</f>
+        <f t="shared" si="11"/>
         <v>83</v>
       </c>
     </row>
@@ -7347,19 +7348,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <f>IF($E175&lt;85,255-$E175*3,IF($E175&lt;170,0,($E175-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="C175">
-        <f>IF($E175&lt;85,0,IF($E175&lt;170,($E175-85)*3,255 - ($E175-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D175">
-        <f>IF($E175&lt;85,$E175*3,IF($E175&lt;170,255 - ($E175-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>246</v>
       </c>
       <c r="E175">
-        <f>255-A175</f>
+        <f t="shared" si="11"/>
         <v>82</v>
       </c>
     </row>
@@ -7368,19 +7369,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <f>IF($E176&lt;85,255-$E176*3,IF($E176&lt;170,0,($E176-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="C176">
-        <f>IF($E176&lt;85,0,IF($E176&lt;170,($E176-85)*3,255 - ($E176-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D176">
-        <f>IF($E176&lt;85,$E176*3,IF($E176&lt;170,255 - ($E176-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>243</v>
       </c>
       <c r="E176">
-        <f>255-A176</f>
+        <f t="shared" si="11"/>
         <v>81</v>
       </c>
     </row>
@@ -7389,19 +7390,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <f>IF($E177&lt;85,255-$E177*3,IF($E177&lt;170,0,($E177-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="C177">
-        <f>IF($E177&lt;85,0,IF($E177&lt;170,($E177-85)*3,255 - ($E177-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D177">
-        <f>IF($E177&lt;85,$E177*3,IF($E177&lt;170,255 - ($E177-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>240</v>
       </c>
       <c r="E177">
-        <f>255-A177</f>
+        <f t="shared" si="11"/>
         <v>80</v>
       </c>
     </row>
@@ -7410,19 +7411,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <f>IF($E178&lt;85,255-$E178*3,IF($E178&lt;170,0,($E178-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="C178">
-        <f>IF($E178&lt;85,0,IF($E178&lt;170,($E178-85)*3,255 - ($E178-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D178">
-        <f>IF($E178&lt;85,$E178*3,IF($E178&lt;170,255 - ($E178-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>237</v>
       </c>
       <c r="E178">
-        <f>255-A178</f>
+        <f t="shared" si="11"/>
         <v>79</v>
       </c>
     </row>
@@ -7431,19 +7432,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <f>IF($E179&lt;85,255-$E179*3,IF($E179&lt;170,0,($E179-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="C179">
-        <f>IF($E179&lt;85,0,IF($E179&lt;170,($E179-85)*3,255 - ($E179-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D179">
-        <f>IF($E179&lt;85,$E179*3,IF($E179&lt;170,255 - ($E179-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>234</v>
       </c>
       <c r="E179">
-        <f>255-A179</f>
+        <f t="shared" si="11"/>
         <v>78</v>
       </c>
     </row>
@@ -7452,19 +7453,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <f>IF($E180&lt;85,255-$E180*3,IF($E180&lt;170,0,($E180-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="C180">
-        <f>IF($E180&lt;85,0,IF($E180&lt;170,($E180-85)*3,255 - ($E180-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D180">
-        <f>IF($E180&lt;85,$E180*3,IF($E180&lt;170,255 - ($E180-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>231</v>
       </c>
       <c r="E180">
-        <f>255-A180</f>
+        <f t="shared" si="11"/>
         <v>77</v>
       </c>
     </row>
@@ -7473,19 +7474,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <f>IF($E181&lt;85,255-$E181*3,IF($E181&lt;170,0,($E181-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="C181">
-        <f>IF($E181&lt;85,0,IF($E181&lt;170,($E181-85)*3,255 - ($E181-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D181">
-        <f>IF($E181&lt;85,$E181*3,IF($E181&lt;170,255 - ($E181-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>228</v>
       </c>
       <c r="E181">
-        <f>255-A181</f>
+        <f t="shared" si="11"/>
         <v>76</v>
       </c>
     </row>
@@ -7494,19 +7495,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <f>IF($E182&lt;85,255-$E182*3,IF($E182&lt;170,0,($E182-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="C182">
-        <f>IF($E182&lt;85,0,IF($E182&lt;170,($E182-85)*3,255 - ($E182-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D182">
-        <f>IF($E182&lt;85,$E182*3,IF($E182&lt;170,255 - ($E182-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>225</v>
       </c>
       <c r="E182">
-        <f>255-A182</f>
+        <f t="shared" si="11"/>
         <v>75</v>
       </c>
     </row>
@@ -7515,19 +7516,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <f>IF($E183&lt;85,255-$E183*3,IF($E183&lt;170,0,($E183-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>33</v>
       </c>
       <c r="C183">
-        <f>IF($E183&lt;85,0,IF($E183&lt;170,($E183-85)*3,255 - ($E183-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D183">
-        <f>IF($E183&lt;85,$E183*3,IF($E183&lt;170,255 - ($E183-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>222</v>
       </c>
       <c r="E183">
-        <f>255-A183</f>
+        <f t="shared" si="11"/>
         <v>74</v>
       </c>
     </row>
@@ -7536,19 +7537,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <f>IF($E184&lt;85,255-$E184*3,IF($E184&lt;170,0,($E184-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="C184">
-        <f>IF($E184&lt;85,0,IF($E184&lt;170,($E184-85)*3,255 - ($E184-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D184">
-        <f>IF($E184&lt;85,$E184*3,IF($E184&lt;170,255 - ($E184-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>219</v>
       </c>
       <c r="E184">
-        <f>255-A184</f>
+        <f t="shared" si="11"/>
         <v>73</v>
       </c>
     </row>
@@ -7557,19 +7558,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <f>IF($E185&lt;85,255-$E185*3,IF($E185&lt;170,0,($E185-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>39</v>
       </c>
       <c r="C185">
-        <f>IF($E185&lt;85,0,IF($E185&lt;170,($E185-85)*3,255 - ($E185-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D185">
-        <f>IF($E185&lt;85,$E185*3,IF($E185&lt;170,255 - ($E185-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>216</v>
       </c>
       <c r="E185">
-        <f>255-A185</f>
+        <f t="shared" si="11"/>
         <v>72</v>
       </c>
     </row>
@@ -7578,19 +7579,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <f>IF($E186&lt;85,255-$E186*3,IF($E186&lt;170,0,($E186-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
       <c r="C186">
-        <f>IF($E186&lt;85,0,IF($E186&lt;170,($E186-85)*3,255 - ($E186-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D186">
-        <f>IF($E186&lt;85,$E186*3,IF($E186&lt;170,255 - ($E186-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>213</v>
       </c>
       <c r="E186">
-        <f>255-A186</f>
+        <f t="shared" si="11"/>
         <v>71</v>
       </c>
     </row>
@@ -7599,19 +7600,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <f>IF($E187&lt;85,255-$E187*3,IF($E187&lt;170,0,($E187-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
       <c r="C187">
-        <f>IF($E187&lt;85,0,IF($E187&lt;170,($E187-85)*3,255 - ($E187-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D187">
-        <f>IF($E187&lt;85,$E187*3,IF($E187&lt;170,255 - ($E187-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>210</v>
       </c>
       <c r="E187">
-        <f>255-A187</f>
+        <f t="shared" si="11"/>
         <v>70</v>
       </c>
     </row>
@@ -7620,19 +7621,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <f>IF($E188&lt;85,255-$E188*3,IF($E188&lt;170,0,($E188-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>48</v>
       </c>
       <c r="C188">
-        <f>IF($E188&lt;85,0,IF($E188&lt;170,($E188-85)*3,255 - ($E188-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D188">
-        <f>IF($E188&lt;85,$E188*3,IF($E188&lt;170,255 - ($E188-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>207</v>
       </c>
       <c r="E188">
-        <f>255-A188</f>
+        <f t="shared" si="11"/>
         <v>69</v>
       </c>
     </row>
@@ -7641,19 +7642,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <f>IF($E189&lt;85,255-$E189*3,IF($E189&lt;170,0,($E189-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>51</v>
       </c>
       <c r="C189">
-        <f>IF($E189&lt;85,0,IF($E189&lt;170,($E189-85)*3,255 - ($E189-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D189">
-        <f>IF($E189&lt;85,$E189*3,IF($E189&lt;170,255 - ($E189-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>204</v>
       </c>
       <c r="E189">
-        <f>255-A189</f>
+        <f t="shared" si="11"/>
         <v>68</v>
       </c>
     </row>
@@ -7662,19 +7663,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <f>IF($E190&lt;85,255-$E190*3,IF($E190&lt;170,0,($E190-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>54</v>
       </c>
       <c r="C190">
-        <f>IF($E190&lt;85,0,IF($E190&lt;170,($E190-85)*3,255 - ($E190-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D190">
-        <f>IF($E190&lt;85,$E190*3,IF($E190&lt;170,255 - ($E190-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>201</v>
       </c>
       <c r="E190">
-        <f>255-A190</f>
+        <f t="shared" si="11"/>
         <v>67</v>
       </c>
     </row>
@@ -7683,19 +7684,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <f>IF($E191&lt;85,255-$E191*3,IF($E191&lt;170,0,($E191-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>57</v>
       </c>
       <c r="C191">
-        <f>IF($E191&lt;85,0,IF($E191&lt;170,($E191-85)*3,255 - ($E191-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D191">
-        <f>IF($E191&lt;85,$E191*3,IF($E191&lt;170,255 - ($E191-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>198</v>
       </c>
       <c r="E191">
-        <f>255-A191</f>
+        <f t="shared" si="11"/>
         <v>66</v>
       </c>
     </row>
@@ -7704,19 +7705,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <f>IF($E192&lt;85,255-$E192*3,IF($E192&lt;170,0,($E192-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="C192">
-        <f>IF($E192&lt;85,0,IF($E192&lt;170,($E192-85)*3,255 - ($E192-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D192">
-        <f>IF($E192&lt;85,$E192*3,IF($E192&lt;170,255 - ($E192-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>195</v>
       </c>
       <c r="E192">
-        <f>255-A192</f>
+        <f t="shared" si="11"/>
         <v>65</v>
       </c>
     </row>
@@ -7725,19 +7726,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <f>IF($E193&lt;85,255-$E193*3,IF($E193&lt;170,0,($E193-170) * 3))</f>
+        <f t="shared" si="8"/>
         <v>63</v>
       </c>
       <c r="C193">
-        <f>IF($E193&lt;85,0,IF($E193&lt;170,($E193-85)*3,255 - ($E193-170) * 3))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D193">
-        <f>IF($E193&lt;85,$E193*3,IF($E193&lt;170,255 - ($E193-85) * 3,0))</f>
+        <f t="shared" si="10"/>
         <v>192</v>
       </c>
       <c r="E193">
-        <f>255-A193</f>
+        <f t="shared" si="11"/>
         <v>64</v>
       </c>
     </row>
@@ -7746,19 +7747,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <f>IF($E194&lt;85,255-$E194*3,IF($E194&lt;170,0,($E194-170) * 3))</f>
+        <f t="shared" ref="B194:B257" si="12">IF($E194&lt;85,255-$E194*3,IF($E194&lt;170,0,($E194-170) * 3))</f>
         <v>66</v>
       </c>
       <c r="C194">
-        <f>IF($E194&lt;85,0,IF($E194&lt;170,($E194-85)*3,255 - ($E194-170) * 3))</f>
+        <f t="shared" ref="C194:C257" si="13">IF($E194&lt;85,0,IF($E194&lt;170,($E194-85)*3,255 - ($E194-170) * 3))</f>
         <v>0</v>
       </c>
       <c r="D194">
-        <f>IF($E194&lt;85,$E194*3,IF($E194&lt;170,255 - ($E194-85) * 3,0))</f>
+        <f t="shared" ref="D194:D257" si="14">IF($E194&lt;85,$E194*3,IF($E194&lt;170,255 - ($E194-85) * 3,0))</f>
         <v>189</v>
       </c>
       <c r="E194">
-        <f>255-A194</f>
+        <f t="shared" ref="E194:E257" si="15">255-A194</f>
         <v>63</v>
       </c>
     </row>
@@ -7767,19 +7768,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <f>IF($E195&lt;85,255-$E195*3,IF($E195&lt;170,0,($E195-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>69</v>
       </c>
       <c r="C195">
-        <f>IF($E195&lt;85,0,IF($E195&lt;170,($E195-85)*3,255 - ($E195-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D195">
-        <f>IF($E195&lt;85,$E195*3,IF($E195&lt;170,255 - ($E195-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>186</v>
       </c>
       <c r="E195">
-        <f>255-A195</f>
+        <f t="shared" si="15"/>
         <v>62</v>
       </c>
     </row>
@@ -7788,19 +7789,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <f>IF($E196&lt;85,255-$E196*3,IF($E196&lt;170,0,($E196-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>72</v>
       </c>
       <c r="C196">
-        <f>IF($E196&lt;85,0,IF($E196&lt;170,($E196-85)*3,255 - ($E196-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D196">
-        <f>IF($E196&lt;85,$E196*3,IF($E196&lt;170,255 - ($E196-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>183</v>
       </c>
       <c r="E196">
-        <f>255-A196</f>
+        <f t="shared" si="15"/>
         <v>61</v>
       </c>
     </row>
@@ -7809,19 +7810,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <f>IF($E197&lt;85,255-$E197*3,IF($E197&lt;170,0,($E197-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>75</v>
       </c>
       <c r="C197">
-        <f>IF($E197&lt;85,0,IF($E197&lt;170,($E197-85)*3,255 - ($E197-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D197">
-        <f>IF($E197&lt;85,$E197*3,IF($E197&lt;170,255 - ($E197-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>180</v>
       </c>
       <c r="E197">
-        <f>255-A197</f>
+        <f t="shared" si="15"/>
         <v>60</v>
       </c>
     </row>
@@ -7830,19 +7831,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <f>IF($E198&lt;85,255-$E198*3,IF($E198&lt;170,0,($E198-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>78</v>
       </c>
       <c r="C198">
-        <f>IF($E198&lt;85,0,IF($E198&lt;170,($E198-85)*3,255 - ($E198-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D198">
-        <f>IF($E198&lt;85,$E198*3,IF($E198&lt;170,255 - ($E198-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>177</v>
       </c>
       <c r="E198">
-        <f>255-A198</f>
+        <f t="shared" si="15"/>
         <v>59</v>
       </c>
     </row>
@@ -7851,19 +7852,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <f>IF($E199&lt;85,255-$E199*3,IF($E199&lt;170,0,($E199-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>81</v>
       </c>
       <c r="C199">
-        <f>IF($E199&lt;85,0,IF($E199&lt;170,($E199-85)*3,255 - ($E199-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D199">
-        <f>IF($E199&lt;85,$E199*3,IF($E199&lt;170,255 - ($E199-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>174</v>
       </c>
       <c r="E199">
-        <f>255-A199</f>
+        <f t="shared" si="15"/>
         <v>58</v>
       </c>
     </row>
@@ -7872,19 +7873,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <f>IF($E200&lt;85,255-$E200*3,IF($E200&lt;170,0,($E200-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>84</v>
       </c>
       <c r="C200">
-        <f>IF($E200&lt;85,0,IF($E200&lt;170,($E200-85)*3,255 - ($E200-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D200">
-        <f>IF($E200&lt;85,$E200*3,IF($E200&lt;170,255 - ($E200-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>171</v>
       </c>
       <c r="E200">
-        <f>255-A200</f>
+        <f t="shared" si="15"/>
         <v>57</v>
       </c>
     </row>
@@ -7893,19 +7894,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <f>IF($E201&lt;85,255-$E201*3,IF($E201&lt;170,0,($E201-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>87</v>
       </c>
       <c r="C201">
-        <f>IF($E201&lt;85,0,IF($E201&lt;170,($E201-85)*3,255 - ($E201-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D201">
-        <f>IF($E201&lt;85,$E201*3,IF($E201&lt;170,255 - ($E201-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>168</v>
       </c>
       <c r="E201">
-        <f>255-A201</f>
+        <f t="shared" si="15"/>
         <v>56</v>
       </c>
     </row>
@@ -7914,19 +7915,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <f>IF($E202&lt;85,255-$E202*3,IF($E202&lt;170,0,($E202-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>90</v>
       </c>
       <c r="C202">
-        <f>IF($E202&lt;85,0,IF($E202&lt;170,($E202-85)*3,255 - ($E202-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D202">
-        <f>IF($E202&lt;85,$E202*3,IF($E202&lt;170,255 - ($E202-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>165</v>
       </c>
       <c r="E202">
-        <f>255-A202</f>
+        <f t="shared" si="15"/>
         <v>55</v>
       </c>
     </row>
@@ -7935,19 +7936,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <f>IF($E203&lt;85,255-$E203*3,IF($E203&lt;170,0,($E203-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>93</v>
       </c>
       <c r="C203">
-        <f>IF($E203&lt;85,0,IF($E203&lt;170,($E203-85)*3,255 - ($E203-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D203">
-        <f>IF($E203&lt;85,$E203*3,IF($E203&lt;170,255 - ($E203-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>162</v>
       </c>
       <c r="E203">
-        <f>255-A203</f>
+        <f t="shared" si="15"/>
         <v>54</v>
       </c>
     </row>
@@ -7956,19 +7957,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <f>IF($E204&lt;85,255-$E204*3,IF($E204&lt;170,0,($E204-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>96</v>
       </c>
       <c r="C204">
-        <f>IF($E204&lt;85,0,IF($E204&lt;170,($E204-85)*3,255 - ($E204-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D204">
-        <f>IF($E204&lt;85,$E204*3,IF($E204&lt;170,255 - ($E204-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>159</v>
       </c>
       <c r="E204">
-        <f>255-A204</f>
+        <f t="shared" si="15"/>
         <v>53</v>
       </c>
     </row>
@@ -7977,19 +7978,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <f>IF($E205&lt;85,255-$E205*3,IF($E205&lt;170,0,($E205-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>99</v>
       </c>
       <c r="C205">
-        <f>IF($E205&lt;85,0,IF($E205&lt;170,($E205-85)*3,255 - ($E205-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D205">
-        <f>IF($E205&lt;85,$E205*3,IF($E205&lt;170,255 - ($E205-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>156</v>
       </c>
       <c r="E205">
-        <f>255-A205</f>
+        <f t="shared" si="15"/>
         <v>52</v>
       </c>
     </row>
@@ -7998,19 +7999,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <f>IF($E206&lt;85,255-$E206*3,IF($E206&lt;170,0,($E206-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>102</v>
       </c>
       <c r="C206">
-        <f>IF($E206&lt;85,0,IF($E206&lt;170,($E206-85)*3,255 - ($E206-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D206">
-        <f>IF($E206&lt;85,$E206*3,IF($E206&lt;170,255 - ($E206-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>153</v>
       </c>
       <c r="E206">
-        <f>255-A206</f>
+        <f t="shared" si="15"/>
         <v>51</v>
       </c>
     </row>
@@ -8019,19 +8020,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <f>IF($E207&lt;85,255-$E207*3,IF($E207&lt;170,0,($E207-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>105</v>
       </c>
       <c r="C207">
-        <f>IF($E207&lt;85,0,IF($E207&lt;170,($E207-85)*3,255 - ($E207-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D207">
-        <f>IF($E207&lt;85,$E207*3,IF($E207&lt;170,255 - ($E207-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>150</v>
       </c>
       <c r="E207">
-        <f>255-A207</f>
+        <f t="shared" si="15"/>
         <v>50</v>
       </c>
     </row>
@@ -8040,19 +8041,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <f>IF($E208&lt;85,255-$E208*3,IF($E208&lt;170,0,($E208-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>108</v>
       </c>
       <c r="C208">
-        <f>IF($E208&lt;85,0,IF($E208&lt;170,($E208-85)*3,255 - ($E208-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D208">
-        <f>IF($E208&lt;85,$E208*3,IF($E208&lt;170,255 - ($E208-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>147</v>
       </c>
       <c r="E208">
-        <f>255-A208</f>
+        <f t="shared" si="15"/>
         <v>49</v>
       </c>
     </row>
@@ -8061,19 +8062,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <f>IF($E209&lt;85,255-$E209*3,IF($E209&lt;170,0,($E209-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>111</v>
       </c>
       <c r="C209">
-        <f>IF($E209&lt;85,0,IF($E209&lt;170,($E209-85)*3,255 - ($E209-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D209">
-        <f>IF($E209&lt;85,$E209*3,IF($E209&lt;170,255 - ($E209-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>144</v>
       </c>
       <c r="E209">
-        <f>255-A209</f>
+        <f t="shared" si="15"/>
         <v>48</v>
       </c>
     </row>
@@ -8082,19 +8083,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <f>IF($E210&lt;85,255-$E210*3,IF($E210&lt;170,0,($E210-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>114</v>
       </c>
       <c r="C210">
-        <f>IF($E210&lt;85,0,IF($E210&lt;170,($E210-85)*3,255 - ($E210-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D210">
-        <f>IF($E210&lt;85,$E210*3,IF($E210&lt;170,255 - ($E210-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>141</v>
       </c>
       <c r="E210">
-        <f>255-A210</f>
+        <f t="shared" si="15"/>
         <v>47</v>
       </c>
     </row>
@@ -8103,19 +8104,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <f>IF($E211&lt;85,255-$E211*3,IF($E211&lt;170,0,($E211-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>117</v>
       </c>
       <c r="C211">
-        <f>IF($E211&lt;85,0,IF($E211&lt;170,($E211-85)*3,255 - ($E211-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D211">
-        <f>IF($E211&lt;85,$E211*3,IF($E211&lt;170,255 - ($E211-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>138</v>
       </c>
       <c r="E211">
-        <f>255-A211</f>
+        <f t="shared" si="15"/>
         <v>46</v>
       </c>
     </row>
@@ -8124,19 +8125,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <f>IF($E212&lt;85,255-$E212*3,IF($E212&lt;170,0,($E212-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>120</v>
       </c>
       <c r="C212">
-        <f>IF($E212&lt;85,0,IF($E212&lt;170,($E212-85)*3,255 - ($E212-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D212">
-        <f>IF($E212&lt;85,$E212*3,IF($E212&lt;170,255 - ($E212-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>135</v>
       </c>
       <c r="E212">
-        <f>255-A212</f>
+        <f t="shared" si="15"/>
         <v>45</v>
       </c>
     </row>
@@ -8145,19 +8146,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <f>IF($E213&lt;85,255-$E213*3,IF($E213&lt;170,0,($E213-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>123</v>
       </c>
       <c r="C213">
-        <f>IF($E213&lt;85,0,IF($E213&lt;170,($E213-85)*3,255 - ($E213-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D213">
-        <f>IF($E213&lt;85,$E213*3,IF($E213&lt;170,255 - ($E213-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>132</v>
       </c>
       <c r="E213">
-        <f>255-A213</f>
+        <f t="shared" si="15"/>
         <v>44</v>
       </c>
     </row>
@@ -8166,19 +8167,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <f>IF($E214&lt;85,255-$E214*3,IF($E214&lt;170,0,($E214-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>126</v>
       </c>
       <c r="C214">
-        <f>IF($E214&lt;85,0,IF($E214&lt;170,($E214-85)*3,255 - ($E214-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D214">
-        <f>IF($E214&lt;85,$E214*3,IF($E214&lt;170,255 - ($E214-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>129</v>
       </c>
       <c r="E214">
-        <f>255-A214</f>
+        <f t="shared" si="15"/>
         <v>43</v>
       </c>
     </row>
@@ -8187,19 +8188,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <f>IF($E215&lt;85,255-$E215*3,IF($E215&lt;170,0,($E215-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>129</v>
       </c>
       <c r="C215">
-        <f>IF($E215&lt;85,0,IF($E215&lt;170,($E215-85)*3,255 - ($E215-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D215">
-        <f>IF($E215&lt;85,$E215*3,IF($E215&lt;170,255 - ($E215-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>126</v>
       </c>
       <c r="E215">
-        <f>255-A215</f>
+        <f t="shared" si="15"/>
         <v>42</v>
       </c>
     </row>
@@ -8208,19 +8209,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <f>IF($E216&lt;85,255-$E216*3,IF($E216&lt;170,0,($E216-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>132</v>
       </c>
       <c r="C216">
-        <f>IF($E216&lt;85,0,IF($E216&lt;170,($E216-85)*3,255 - ($E216-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D216">
-        <f>IF($E216&lt;85,$E216*3,IF($E216&lt;170,255 - ($E216-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>123</v>
       </c>
       <c r="E216">
-        <f>255-A216</f>
+        <f t="shared" si="15"/>
         <v>41</v>
       </c>
     </row>
@@ -8229,19 +8230,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <f>IF($E217&lt;85,255-$E217*3,IF($E217&lt;170,0,($E217-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>135</v>
       </c>
       <c r="C217">
-        <f>IF($E217&lt;85,0,IF($E217&lt;170,($E217-85)*3,255 - ($E217-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D217">
-        <f>IF($E217&lt;85,$E217*3,IF($E217&lt;170,255 - ($E217-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>120</v>
       </c>
       <c r="E217">
-        <f>255-A217</f>
+        <f t="shared" si="15"/>
         <v>40</v>
       </c>
     </row>
@@ -8250,19 +8251,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <f>IF($E218&lt;85,255-$E218*3,IF($E218&lt;170,0,($E218-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>138</v>
       </c>
       <c r="C218">
-        <f>IF($E218&lt;85,0,IF($E218&lt;170,($E218-85)*3,255 - ($E218-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D218">
-        <f>IF($E218&lt;85,$E218*3,IF($E218&lt;170,255 - ($E218-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>117</v>
       </c>
       <c r="E218">
-        <f>255-A218</f>
+        <f t="shared" si="15"/>
         <v>39</v>
       </c>
     </row>
@@ -8271,19 +8272,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <f>IF($E219&lt;85,255-$E219*3,IF($E219&lt;170,0,($E219-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>141</v>
       </c>
       <c r="C219">
-        <f>IF($E219&lt;85,0,IF($E219&lt;170,($E219-85)*3,255 - ($E219-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D219">
-        <f>IF($E219&lt;85,$E219*3,IF($E219&lt;170,255 - ($E219-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>114</v>
       </c>
       <c r="E219">
-        <f>255-A219</f>
+        <f t="shared" si="15"/>
         <v>38</v>
       </c>
     </row>
@@ -8292,19 +8293,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <f>IF($E220&lt;85,255-$E220*3,IF($E220&lt;170,0,($E220-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>144</v>
       </c>
       <c r="C220">
-        <f>IF($E220&lt;85,0,IF($E220&lt;170,($E220-85)*3,255 - ($E220-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D220">
-        <f>IF($E220&lt;85,$E220*3,IF($E220&lt;170,255 - ($E220-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>111</v>
       </c>
       <c r="E220">
-        <f>255-A220</f>
+        <f t="shared" si="15"/>
         <v>37</v>
       </c>
     </row>
@@ -8313,19 +8314,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <f>IF($E221&lt;85,255-$E221*3,IF($E221&lt;170,0,($E221-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>147</v>
       </c>
       <c r="C221">
-        <f>IF($E221&lt;85,0,IF($E221&lt;170,($E221-85)*3,255 - ($E221-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D221">
-        <f>IF($E221&lt;85,$E221*3,IF($E221&lt;170,255 - ($E221-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>108</v>
       </c>
       <c r="E221">
-        <f>255-A221</f>
+        <f t="shared" si="15"/>
         <v>36</v>
       </c>
     </row>
@@ -8334,19 +8335,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <f>IF($E222&lt;85,255-$E222*3,IF($E222&lt;170,0,($E222-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>150</v>
       </c>
       <c r="C222">
-        <f>IF($E222&lt;85,0,IF($E222&lt;170,($E222-85)*3,255 - ($E222-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D222">
-        <f>IF($E222&lt;85,$E222*3,IF($E222&lt;170,255 - ($E222-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>105</v>
       </c>
       <c r="E222">
-        <f>255-A222</f>
+        <f t="shared" si="15"/>
         <v>35</v>
       </c>
     </row>
@@ -8355,19 +8356,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <f>IF($E223&lt;85,255-$E223*3,IF($E223&lt;170,0,($E223-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>153</v>
       </c>
       <c r="C223">
-        <f>IF($E223&lt;85,0,IF($E223&lt;170,($E223-85)*3,255 - ($E223-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D223">
-        <f>IF($E223&lt;85,$E223*3,IF($E223&lt;170,255 - ($E223-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>102</v>
       </c>
       <c r="E223">
-        <f>255-A223</f>
+        <f t="shared" si="15"/>
         <v>34</v>
       </c>
     </row>
@@ -8376,19 +8377,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <f>IF($E224&lt;85,255-$E224*3,IF($E224&lt;170,0,($E224-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>156</v>
       </c>
       <c r="C224">
-        <f>IF($E224&lt;85,0,IF($E224&lt;170,($E224-85)*3,255 - ($E224-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D224">
-        <f>IF($E224&lt;85,$E224*3,IF($E224&lt;170,255 - ($E224-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>99</v>
       </c>
       <c r="E224">
-        <f>255-A224</f>
+        <f t="shared" si="15"/>
         <v>33</v>
       </c>
     </row>
@@ -8397,19 +8398,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <f>IF($E225&lt;85,255-$E225*3,IF($E225&lt;170,0,($E225-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>159</v>
       </c>
       <c r="C225">
-        <f>IF($E225&lt;85,0,IF($E225&lt;170,($E225-85)*3,255 - ($E225-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D225">
-        <f>IF($E225&lt;85,$E225*3,IF($E225&lt;170,255 - ($E225-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>96</v>
       </c>
       <c r="E225">
-        <f>255-A225</f>
+        <f t="shared" si="15"/>
         <v>32</v>
       </c>
     </row>
@@ -8418,19 +8419,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <f>IF($E226&lt;85,255-$E226*3,IF($E226&lt;170,0,($E226-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>162</v>
       </c>
       <c r="C226">
-        <f>IF($E226&lt;85,0,IF($E226&lt;170,($E226-85)*3,255 - ($E226-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D226">
-        <f>IF($E226&lt;85,$E226*3,IF($E226&lt;170,255 - ($E226-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>93</v>
       </c>
       <c r="E226">
-        <f>255-A226</f>
+        <f t="shared" si="15"/>
         <v>31</v>
       </c>
     </row>
@@ -8439,19 +8440,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <f>IF($E227&lt;85,255-$E227*3,IF($E227&lt;170,0,($E227-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>165</v>
       </c>
       <c r="C227">
-        <f>IF($E227&lt;85,0,IF($E227&lt;170,($E227-85)*3,255 - ($E227-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D227">
-        <f>IF($E227&lt;85,$E227*3,IF($E227&lt;170,255 - ($E227-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>90</v>
       </c>
       <c r="E227">
-        <f>255-A227</f>
+        <f t="shared" si="15"/>
         <v>30</v>
       </c>
     </row>
@@ -8460,19 +8461,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <f>IF($E228&lt;85,255-$E228*3,IF($E228&lt;170,0,($E228-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>168</v>
       </c>
       <c r="C228">
-        <f>IF($E228&lt;85,0,IF($E228&lt;170,($E228-85)*3,255 - ($E228-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D228">
-        <f>IF($E228&lt;85,$E228*3,IF($E228&lt;170,255 - ($E228-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>87</v>
       </c>
       <c r="E228">
-        <f>255-A228</f>
+        <f t="shared" si="15"/>
         <v>29</v>
       </c>
     </row>
@@ -8481,19 +8482,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <f>IF($E229&lt;85,255-$E229*3,IF($E229&lt;170,0,($E229-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>171</v>
       </c>
       <c r="C229">
-        <f>IF($E229&lt;85,0,IF($E229&lt;170,($E229-85)*3,255 - ($E229-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D229">
-        <f>IF($E229&lt;85,$E229*3,IF($E229&lt;170,255 - ($E229-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>84</v>
       </c>
       <c r="E229">
-        <f>255-A229</f>
+        <f t="shared" si="15"/>
         <v>28</v>
       </c>
     </row>
@@ -8502,19 +8503,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <f>IF($E230&lt;85,255-$E230*3,IF($E230&lt;170,0,($E230-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>174</v>
       </c>
       <c r="C230">
-        <f>IF($E230&lt;85,0,IF($E230&lt;170,($E230-85)*3,255 - ($E230-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D230">
-        <f>IF($E230&lt;85,$E230*3,IF($E230&lt;170,255 - ($E230-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>81</v>
       </c>
       <c r="E230">
-        <f>255-A230</f>
+        <f t="shared" si="15"/>
         <v>27</v>
       </c>
     </row>
@@ -8523,19 +8524,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <f>IF($E231&lt;85,255-$E231*3,IF($E231&lt;170,0,($E231-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>177</v>
       </c>
       <c r="C231">
-        <f>IF($E231&lt;85,0,IF($E231&lt;170,($E231-85)*3,255 - ($E231-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D231">
-        <f>IF($E231&lt;85,$E231*3,IF($E231&lt;170,255 - ($E231-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>78</v>
       </c>
       <c r="E231">
-        <f>255-A231</f>
+        <f t="shared" si="15"/>
         <v>26</v>
       </c>
     </row>
@@ -8544,19 +8545,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <f>IF($E232&lt;85,255-$E232*3,IF($E232&lt;170,0,($E232-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>180</v>
       </c>
       <c r="C232">
-        <f>IF($E232&lt;85,0,IF($E232&lt;170,($E232-85)*3,255 - ($E232-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D232">
-        <f>IF($E232&lt;85,$E232*3,IF($E232&lt;170,255 - ($E232-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>75</v>
       </c>
       <c r="E232">
-        <f>255-A232</f>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
     </row>
@@ -8565,19 +8566,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <f>IF($E233&lt;85,255-$E233*3,IF($E233&lt;170,0,($E233-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>183</v>
       </c>
       <c r="C233">
-        <f>IF($E233&lt;85,0,IF($E233&lt;170,($E233-85)*3,255 - ($E233-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D233">
-        <f>IF($E233&lt;85,$E233*3,IF($E233&lt;170,255 - ($E233-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>72</v>
       </c>
       <c r="E233">
-        <f>255-A233</f>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
     </row>
@@ -8586,19 +8587,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <f>IF($E234&lt;85,255-$E234*3,IF($E234&lt;170,0,($E234-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>186</v>
       </c>
       <c r="C234">
-        <f>IF($E234&lt;85,0,IF($E234&lt;170,($E234-85)*3,255 - ($E234-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D234">
-        <f>IF($E234&lt;85,$E234*3,IF($E234&lt;170,255 - ($E234-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>69</v>
       </c>
       <c r="E234">
-        <f>255-A234</f>
+        <f t="shared" si="15"/>
         <v>23</v>
       </c>
     </row>
@@ -8607,19 +8608,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <f>IF($E235&lt;85,255-$E235*3,IF($E235&lt;170,0,($E235-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>189</v>
       </c>
       <c r="C235">
-        <f>IF($E235&lt;85,0,IF($E235&lt;170,($E235-85)*3,255 - ($E235-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D235">
-        <f>IF($E235&lt;85,$E235*3,IF($E235&lt;170,255 - ($E235-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>66</v>
       </c>
       <c r="E235">
-        <f>255-A235</f>
+        <f t="shared" si="15"/>
         <v>22</v>
       </c>
     </row>
@@ -8628,19 +8629,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <f>IF($E236&lt;85,255-$E236*3,IF($E236&lt;170,0,($E236-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>192</v>
       </c>
       <c r="C236">
-        <f>IF($E236&lt;85,0,IF($E236&lt;170,($E236-85)*3,255 - ($E236-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D236">
-        <f>IF($E236&lt;85,$E236*3,IF($E236&lt;170,255 - ($E236-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>63</v>
       </c>
       <c r="E236">
-        <f>255-A236</f>
+        <f t="shared" si="15"/>
         <v>21</v>
       </c>
     </row>
@@ -8649,19 +8650,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <f>IF($E237&lt;85,255-$E237*3,IF($E237&lt;170,0,($E237-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>195</v>
       </c>
       <c r="C237">
-        <f>IF($E237&lt;85,0,IF($E237&lt;170,($E237-85)*3,255 - ($E237-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D237">
-        <f>IF($E237&lt;85,$E237*3,IF($E237&lt;170,255 - ($E237-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>60</v>
       </c>
       <c r="E237">
-        <f>255-A237</f>
+        <f t="shared" si="15"/>
         <v>20</v>
       </c>
     </row>
@@ -8670,19 +8671,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <f>IF($E238&lt;85,255-$E238*3,IF($E238&lt;170,0,($E238-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>198</v>
       </c>
       <c r="C238">
-        <f>IF($E238&lt;85,0,IF($E238&lt;170,($E238-85)*3,255 - ($E238-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D238">
-        <f>IF($E238&lt;85,$E238*3,IF($E238&lt;170,255 - ($E238-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>57</v>
       </c>
       <c r="E238">
-        <f>255-A238</f>
+        <f t="shared" si="15"/>
         <v>19</v>
       </c>
     </row>
@@ -8691,19 +8692,19 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <f>IF($E239&lt;85,255-$E239*3,IF($E239&lt;170,0,($E239-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>201</v>
       </c>
       <c r="C239">
-        <f>IF($E239&lt;85,0,IF($E239&lt;170,($E239-85)*3,255 - ($E239-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D239">
-        <f>IF($E239&lt;85,$E239*3,IF($E239&lt;170,255 - ($E239-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>54</v>
       </c>
       <c r="E239">
-        <f>255-A239</f>
+        <f t="shared" si="15"/>
         <v>18</v>
       </c>
     </row>
@@ -8712,19 +8713,19 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <f>IF($E240&lt;85,255-$E240*3,IF($E240&lt;170,0,($E240-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>204</v>
       </c>
       <c r="C240">
-        <f>IF($E240&lt;85,0,IF($E240&lt;170,($E240-85)*3,255 - ($E240-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D240">
-        <f>IF($E240&lt;85,$E240*3,IF($E240&lt;170,255 - ($E240-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>51</v>
       </c>
       <c r="E240">
-        <f>255-A240</f>
+        <f t="shared" si="15"/>
         <v>17</v>
       </c>
     </row>
@@ -8733,19 +8734,19 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <f>IF($E241&lt;85,255-$E241*3,IF($E241&lt;170,0,($E241-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>207</v>
       </c>
       <c r="C241">
-        <f>IF($E241&lt;85,0,IF($E241&lt;170,($E241-85)*3,255 - ($E241-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D241">
-        <f>IF($E241&lt;85,$E241*3,IF($E241&lt;170,255 - ($E241-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>48</v>
       </c>
       <c r="E241">
-        <f>255-A241</f>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
     </row>
@@ -8754,19 +8755,19 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <f>IF($E242&lt;85,255-$E242*3,IF($E242&lt;170,0,($E242-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>210</v>
       </c>
       <c r="C242">
-        <f>IF($E242&lt;85,0,IF($E242&lt;170,($E242-85)*3,255 - ($E242-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D242">
-        <f>IF($E242&lt;85,$E242*3,IF($E242&lt;170,255 - ($E242-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>45</v>
       </c>
       <c r="E242">
-        <f>255-A242</f>
+        <f t="shared" si="15"/>
         <v>15</v>
       </c>
     </row>
@@ -8775,19 +8776,19 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <f>IF($E243&lt;85,255-$E243*3,IF($E243&lt;170,0,($E243-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>213</v>
       </c>
       <c r="C243">
-        <f>IF($E243&lt;85,0,IF($E243&lt;170,($E243-85)*3,255 - ($E243-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D243">
-        <f>IF($E243&lt;85,$E243*3,IF($E243&lt;170,255 - ($E243-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>42</v>
       </c>
       <c r="E243">
-        <f>255-A243</f>
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
     </row>
@@ -8796,19 +8797,19 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <f>IF($E244&lt;85,255-$E244*3,IF($E244&lt;170,0,($E244-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>216</v>
       </c>
       <c r="C244">
-        <f>IF($E244&lt;85,0,IF($E244&lt;170,($E244-85)*3,255 - ($E244-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D244">
-        <f>IF($E244&lt;85,$E244*3,IF($E244&lt;170,255 - ($E244-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>39</v>
       </c>
       <c r="E244">
-        <f>255-A244</f>
+        <f t="shared" si="15"/>
         <v>13</v>
       </c>
     </row>
@@ -8817,19 +8818,19 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <f>IF($E245&lt;85,255-$E245*3,IF($E245&lt;170,0,($E245-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>219</v>
       </c>
       <c r="C245">
-        <f>IF($E245&lt;85,0,IF($E245&lt;170,($E245-85)*3,255 - ($E245-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D245">
-        <f>IF($E245&lt;85,$E245*3,IF($E245&lt;170,255 - ($E245-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>36</v>
       </c>
       <c r="E245">
-        <f>255-A245</f>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
     </row>
@@ -8838,19 +8839,19 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <f>IF($E246&lt;85,255-$E246*3,IF($E246&lt;170,0,($E246-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>222</v>
       </c>
       <c r="C246">
-        <f>IF($E246&lt;85,0,IF($E246&lt;170,($E246-85)*3,255 - ($E246-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D246">
-        <f>IF($E246&lt;85,$E246*3,IF($E246&lt;170,255 - ($E246-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>33</v>
       </c>
       <c r="E246">
-        <f>255-A246</f>
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
     </row>
@@ -8859,19 +8860,19 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <f>IF($E247&lt;85,255-$E247*3,IF($E247&lt;170,0,($E247-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>225</v>
       </c>
       <c r="C247">
-        <f>IF($E247&lt;85,0,IF($E247&lt;170,($E247-85)*3,255 - ($E247-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D247">
-        <f>IF($E247&lt;85,$E247*3,IF($E247&lt;170,255 - ($E247-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>30</v>
       </c>
       <c r="E247">
-        <f>255-A247</f>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
     </row>
@@ -8880,19 +8881,19 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <f>IF($E248&lt;85,255-$E248*3,IF($E248&lt;170,0,($E248-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>228</v>
       </c>
       <c r="C248">
-        <f>IF($E248&lt;85,0,IF($E248&lt;170,($E248-85)*3,255 - ($E248-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D248">
-        <f>IF($E248&lt;85,$E248*3,IF($E248&lt;170,255 - ($E248-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>27</v>
       </c>
       <c r="E248">
-        <f>255-A248</f>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
     </row>
@@ -8901,19 +8902,19 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <f>IF($E249&lt;85,255-$E249*3,IF($E249&lt;170,0,($E249-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>231</v>
       </c>
       <c r="C249">
-        <f>IF($E249&lt;85,0,IF($E249&lt;170,($E249-85)*3,255 - ($E249-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D249">
-        <f>IF($E249&lt;85,$E249*3,IF($E249&lt;170,255 - ($E249-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="E249">
-        <f>255-A249</f>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
     </row>
@@ -8922,19 +8923,19 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <f>IF($E250&lt;85,255-$E250*3,IF($E250&lt;170,0,($E250-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>234</v>
       </c>
       <c r="C250">
-        <f>IF($E250&lt;85,0,IF($E250&lt;170,($E250-85)*3,255 - ($E250-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D250">
-        <f>IF($E250&lt;85,$E250*3,IF($E250&lt;170,255 - ($E250-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="E250">
-        <f>255-A250</f>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
     </row>
@@ -8943,19 +8944,19 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <f>IF($E251&lt;85,255-$E251*3,IF($E251&lt;170,0,($E251-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>237</v>
       </c>
       <c r="C251">
-        <f>IF($E251&lt;85,0,IF($E251&lt;170,($E251-85)*3,255 - ($E251-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D251">
-        <f>IF($E251&lt;85,$E251*3,IF($E251&lt;170,255 - ($E251-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>18</v>
       </c>
       <c r="E251">
-        <f>255-A251</f>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
     </row>
@@ -8964,19 +8965,19 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <f>IF($E252&lt;85,255-$E252*3,IF($E252&lt;170,0,($E252-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>240</v>
       </c>
       <c r="C252">
-        <f>IF($E252&lt;85,0,IF($E252&lt;170,($E252-85)*3,255 - ($E252-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D252">
-        <f>IF($E252&lt;85,$E252*3,IF($E252&lt;170,255 - ($E252-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="E252">
-        <f>255-A252</f>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
     </row>
@@ -8985,19 +8986,19 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <f>IF($E253&lt;85,255-$E253*3,IF($E253&lt;170,0,($E253-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>243</v>
       </c>
       <c r="C253">
-        <f>IF($E253&lt;85,0,IF($E253&lt;170,($E253-85)*3,255 - ($E253-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D253">
-        <f>IF($E253&lt;85,$E253*3,IF($E253&lt;170,255 - ($E253-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="E253">
-        <f>255-A253</f>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
     </row>
@@ -9006,19 +9007,19 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <f>IF($E254&lt;85,255-$E254*3,IF($E254&lt;170,0,($E254-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>246</v>
       </c>
       <c r="C254">
-        <f>IF($E254&lt;85,0,IF($E254&lt;170,($E254-85)*3,255 - ($E254-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D254">
-        <f>IF($E254&lt;85,$E254*3,IF($E254&lt;170,255 - ($E254-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="E254">
-        <f>255-A254</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
     </row>
@@ -9027,19 +9028,19 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <f>IF($E255&lt;85,255-$E255*3,IF($E255&lt;170,0,($E255-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>249</v>
       </c>
       <c r="C255">
-        <f>IF($E255&lt;85,0,IF($E255&lt;170,($E255-85)*3,255 - ($E255-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D255">
-        <f>IF($E255&lt;85,$E255*3,IF($E255&lt;170,255 - ($E255-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="E255">
-        <f>255-A255</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
     </row>
@@ -9048,19 +9049,19 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <f>IF($E256&lt;85,255-$E256*3,IF($E256&lt;170,0,($E256-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>252</v>
       </c>
       <c r="C256">
-        <f>IF($E256&lt;85,0,IF($E256&lt;170,($E256-85)*3,255 - ($E256-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D256">
-        <f>IF($E256&lt;85,$E256*3,IF($E256&lt;170,255 - ($E256-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="E256">
-        <f>255-A256</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -9069,19 +9070,19 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <f>IF($E257&lt;85,255-$E257*3,IF($E257&lt;170,0,($E257-170) * 3))</f>
+        <f t="shared" si="12"/>
         <v>255</v>
       </c>
       <c r="C257">
-        <f>IF($E257&lt;85,0,IF($E257&lt;170,($E257-85)*3,255 - ($E257-170) * 3))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D257">
-        <f>IF($E257&lt;85,$E257*3,IF($E257&lt;170,255 - ($E257-85) * 3,0))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E257">
-        <f>255-A257</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -9089,4 +9090,479 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>16</v>
+      </c>
+      <c r="B1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>16</v>
+      </c>
+      <c r="F1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>ROUNDDOWN(((B$1 + 1)/$A$1) * $A2, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>MOD(B$1 * $A2, 16)</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>FLOOR(((F$1 + 1)/$A$1) * $A2, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>MOD((F$1 + 1) * $A2, 16)</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>IF(G2&lt;=8,F2,IF(F2+1 &lt; $F$1, F2+1, 0)) + (G2 / $E$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B17" si="0">ROUNDDOWN(((B$1 + 1)/$A$1) * $A3, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>MOD(B$1 * $A3, 16)</f>
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F17" si="1">ROUNDDOWN(((F$1 + 1)/$A$1) * $A3, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G17" si="2">MOD((F$1 + 1) * $A3, 16)</f>
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H7" si="3">IF(G3&lt;=8,F3,IF(F3+1 &lt; $F$1, F3+1, 0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f>MOD(B$1 * $A4, 16)</f>
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <f>MOD(B$1 * $A5, 16)</f>
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <f>MOD(B$1 * $A6, 16)</f>
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <f>((F$1 + 1)/$A$1) * $A6</f>
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f>MOD(B$1 * $A7, 16)</f>
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <f>MOD(B$1 * $A8, 16)</f>
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <f>IF(G8&lt;=8,F8,IF(F8+1 &lt; $F$1, F8+1, 0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f>MOD(B$1 * $A9, 16)</f>
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ref="H9:H17" si="4">IF(G9&lt;=8,F9,IF(F9+1 &lt; $F$1, F9+1, 0))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <f>MOD(B$1 * $A10, 16)</f>
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <f>MOD(B$1 * $A11, 16)</f>
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <f>MOD(B$1 * $A12, 16)</f>
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <f>MOD(B$1 * $A13, 16)</f>
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <f>MOD(B$1 * $A14, 16)</f>
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <f>MOD(B$1 * $A15, 16)</f>
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <f>MOD(B$1 * $A16, 16)</f>
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <f>MOD(B$1 * $A17, 16)</f>
+        <v>13</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PhotonTorpedo.Device/Calculations.xlsx
+++ b/PhotonTorpedo.Device/Calculations.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lutz\VS Projects\Arduino\PhotonTorpedo\PhotonTorpedo\PhotonTorpedo.Device\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9660" activeTab="1"/>
   </bookViews>
@@ -15,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +40,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -75,8 +70,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -95,9 +91,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -142,26 +138,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -969,7 +945,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B02E-4992-8BB6-209DC77C938F}"/>
             </c:ext>
@@ -1775,7 +1751,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-B02E-4992-8BB6-209DC77C938F}"/>
             </c:ext>
@@ -2581,7 +2557,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-B02E-4992-8BB6-209DC77C938F}"/>
             </c:ext>
@@ -2595,11 +2571,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2066153248"/>
-        <c:axId val="14824240"/>
+        <c:axId val="94760960"/>
+        <c:axId val="94762496"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="2066153248"/>
+        <c:axId val="94760960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2641,7 +2617,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14824240"/>
+        <c:crossAx val="94762496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2649,7 +2625,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="14824240"/>
+        <c:axId val="94762496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2700,7 +2676,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2066153248"/>
+        <c:crossAx val="94760960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2745,14 +2721,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3363,7 +3339,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91579B79-405D-485C-98E4-87124039E2F2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91579B79-405D-485C-98E4-87124039E2F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3673,7 +3649,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9094,13 +9070,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:U53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>16</v>
       </c>
@@ -9111,10 +9087,28 @@
         <v>16</v>
       </c>
       <c r="F1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="K1">
+        <v>4</v>
+      </c>
+      <c r="L1">
+        <v>16</v>
+      </c>
+      <c r="O1">
+        <v>20</v>
+      </c>
+      <c r="P1">
+        <v>16</v>
+      </c>
+      <c r="S1">
+        <v>32</v>
+      </c>
+      <c r="T1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -9123,443 +9117,1583 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <f>MOD(B$1 * $A2, 16)</f>
+        <f t="shared" ref="C2:C17" si="0">MOD(B$1 * $A2, 16)</f>
         <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <f>FLOOR(((F$1 + 1)/$A$1) * $A2, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <f>MOD((F$1 + 1) * $A2, 16)</f>
+        <f>ROUNDDOWN(((F$1  * $E2)/$E$1), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <f>MOD((F$1 + G$1) * $E2, 16)</f>
         <v>0</v>
       </c>
       <c r="H2">
-        <f>IF(G2&lt;=8,F2,IF(F2+1 &lt; $F$1, F2+1, 0)) + (G2 / $E$1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <f>F2 + (G2 / E$1)</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>G2*16</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>ROUNDDOWN((K2 * L$1 / K$1), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>ROUNDDOWN(((K2 + 1) * L$1 / K$1), 0) - 1</f>
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f>ROUNDDOWN((O2 * P$1 / O$1), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <f>ROUNDDOWN(((O2 + 1) * P$1 / O$1), 0) - 1</f>
+        <v>-1</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <f>ROUNDDOWN((S2 * T$1 / S$1), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <f>ROUNDDOWN(((S2 + 1) * T$1 / S$1), 0) - 1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B17" si="0">ROUNDDOWN(((B$1 + 1)/$A$1) * $A3, 0)</f>
+        <f t="shared" ref="B3:B17" si="1">ROUNDDOWN(((B$1 + 1)/$A$1) * $A3, 0)</f>
         <v>0</v>
       </c>
       <c r="C3">
-        <f>MOD(B$1 * $A3, 16)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F17" si="1">ROUNDDOWN(((F$1 + 1)/$A$1) * $A3, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G17" si="2">MOD((F$1 + 1) * $A3, 16)</f>
+        <f t="shared" ref="F3:F17" si="2">ROUNDDOWN(((F$1  * $E3)/$E$1), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G17" si="3">MOD((F$1 + G$1) * $E3, 16)</f>
         <v>4</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H7" si="3">IF(G3&lt;=8,F3,IF(F3+1 &lt; $F$1, F3+1, 0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H3:H17" si="4">F3 + (G3 / E$1)</f>
+        <v>0.25</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I17" si="5">G3*16</f>
+        <v>64</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L5" si="6">ROUNDDOWN((K3 * L$1 / K$1), 0)</f>
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M5" si="7">ROUNDDOWN(((K3 + 1) * L$1 / K$1), 0) - 1</f>
+        <v>7</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P21" si="8">ROUNDDOWN((O3 * P$1 / O$1), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q21" si="9">ROUNDDOWN(((O3 + 1) * P$1 / O$1), 0) - 1</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T33" si="10">ROUNDDOWN((S3 * T$1 / S$1), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U33" si="11">ROUNDDOWN(((S3 + 1) * T$1 / S$1), 0) - 1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <f>MOD(B$1 * $A4, 16)</f>
         <v>6</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G4">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="H4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="5"/>
+        <v>128</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <f>MOD(B$1 * $A5, 16)</f>
         <v>9</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G5">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="H5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="5"/>
+        <v>192</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="U5">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C6">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <f>MOD(B$1 * $A6, 16)</f>
         <v>12</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6">
-        <f>((F$1 + 1)/$A$1) * $A6</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G6">
-        <f t="shared" si="2"/>
+      <c r="G6" s="1">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C7">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <f>MOD(B$1 * $A7, 16)</f>
         <v>15</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="4"/>
+        <v>1.25</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>16</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G7">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
+      <c r="C8">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <f>MOD(B$1 * $A8, 16)</f>
         <v>2</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
       <c r="F8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="5"/>
+        <v>128</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f>ROUNDDOWN((K8 * L$7 / K$7), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f>ROUNDDOWN(((K8 + 1) * L$7 / K$7), 0) - 1</f>
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="S8">
+        <v>6</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="H8">
-        <f>IF(G8&lt;=8,F8,IF(F8+1 &lt; $F$1, F8+1, 0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
+      <c r="C9">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <f>MOD(B$1 * $A9, 16)</f>
         <v>5</v>
       </c>
       <c r="E9">
         <v>7</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
+      <c r="G9" s="1">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="H9">
-        <f t="shared" ref="H9:H17" si="4">IF(G9&lt;=8,F9,IF(F9+1 &lt; $F$1, F9+1, 0))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1.75</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="5"/>
+        <v>192</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ref="L9:L10" si="12">ROUNDDOWN((K9 * L$7 / K$7), 0)</f>
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <f t="shared" ref="M9:M10" si="13">ROUNDDOWN(((K9 + 1) * L$7 / K$7), 0) - 1</f>
+        <v>9</v>
+      </c>
+      <c r="O9">
+        <v>7</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="S9">
+        <v>7</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C10">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <f>MOD(B$1 * $A10, 16)</f>
         <v>8</v>
       </c>
       <c r="E10">
         <v>8</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
+      <c r="G10" s="1">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H10">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="O10">
+        <v>8</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="S10">
+        <v>8</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C11">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <f>MOD(B$1 * $A11, 16)</f>
         <v>11</v>
       </c>
       <c r="E11">
         <v>9</v>
       </c>
       <c r="F11">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="4"/>
+        <v>2.25</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="O11">
+        <v>9</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="S11">
+        <v>9</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
+      <c r="C12">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <f>MOD(B$1 * $A12, 16)</f>
         <v>14</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="5"/>
+        <v>128</v>
+      </c>
+      <c r="K12">
+        <v>7</v>
+      </c>
+      <c r="L12">
+        <v>16</v>
+      </c>
+      <c r="O12">
+        <v>10</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="S12">
+        <v>10</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
+      <c r="C13">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <f>MOD(B$1 * $A13, 16)</f>
         <v>1</v>
       </c>
       <c r="E13">
         <v>11</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="2"/>
+      <c r="G13" s="1">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="H13">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2.75</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="5"/>
+        <v>192</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f>ROUNDDOWN((K13 * L$12 / K$12), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f>ROUNDDOWN(((K13 + 1) * L$12 / K$12), 0) - 1</f>
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>11</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="S13">
+        <v>11</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C14">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <f>MOD(B$1 * $A14, 16)</f>
         <v>4</v>
       </c>
       <c r="E14">
         <v>12</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="2"/>
+      <c r="G14" s="1">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H14">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ref="L14:L19" si="14">ROUNDDOWN((K14 * L$12 / K$12), 0)</f>
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ref="M14:M15" si="15">ROUNDDOWN(((K14 + 1) * L$12 / K$12), 0) - 1</f>
+        <v>3</v>
+      </c>
+      <c r="O14">
+        <v>12</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="S14">
+        <v>12</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C15">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <f>MOD(B$1 * $A15, 16)</f>
         <v>7</v>
       </c>
       <c r="E15">
         <v>13</v>
       </c>
       <c r="F15">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="4"/>
+        <v>3.25</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="O15">
+        <v>13</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="S15">
+        <v>13</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16">
+      <c r="C16">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <f>MOD(B$1 * $A16, 16)</f>
         <v>10</v>
       </c>
       <c r="E16">
         <v>14</v>
       </c>
       <c r="F16">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="5"/>
+        <v>128</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="M16">
+        <f t="shared" ref="M16:M19" si="16">ROUNDDOWN(((K16 + 1) * L$12 / K$12), 0) - 1</f>
+        <v>8</v>
+      </c>
+      <c r="O16">
+        <v>14</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="S16">
+        <v>14</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17">
+      <c r="C17">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <f>MOD(B$1 * $A17, 16)</f>
         <v>13</v>
       </c>
       <c r="E17">
         <v>15</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="G17">
-        <f t="shared" si="2"/>
+      <c r="G17" s="1">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="H17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.75</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="5"/>
+        <v>192</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="O17">
+        <v>15</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="S17">
+        <v>15</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="16"/>
+        <v>12</v>
+      </c>
+      <c r="O18">
+        <v>16</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="S18">
+        <v>16</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>6</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="14"/>
+        <v>13</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="16"/>
+        <v>15</v>
+      </c>
+      <c r="O19">
+        <v>17</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="S19">
+        <v>17</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>255</v>
+      </c>
+      <c r="O20">
+        <v>18</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="S20">
+        <v>18</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>32</v>
+      </c>
+      <c r="B21">
+        <f>A20 * (1 - (A$21/A$20))</f>
+        <v>223</v>
+      </c>
+      <c r="O21">
+        <v>19</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="S21">
+        <v>19</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f>A21-1</f>
+        <v>31</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22:B53" si="17">A21 * (1 - (A$21/A$20))</f>
+        <v>27.984313725490196</v>
+      </c>
+      <c r="S22">
+        <v>20</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" ref="A23:A36" si="18">A22-1</f>
+        <v>30</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="17"/>
+        <v>27.109803921568627</v>
+      </c>
+      <c r="S23">
+        <v>21</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="18"/>
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="17"/>
+        <v>26.235294117647058</v>
+      </c>
+      <c r="S24">
+        <v>22</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="18"/>
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="17"/>
+        <v>25.360784313725489</v>
+      </c>
+      <c r="S25">
+        <v>23</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="18"/>
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="17"/>
+        <v>24.48627450980392</v>
+      </c>
+      <c r="S26">
+        <v>24</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="18"/>
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="17"/>
+        <v>23.611764705882354</v>
+      </c>
+      <c r="S27">
+        <v>25</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="18"/>
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="17"/>
+        <v>22.737254901960785</v>
+      </c>
+      <c r="S28">
+        <v>26</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="18"/>
+        <v>24</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="17"/>
+        <v>21.862745098039216</v>
+      </c>
+      <c r="S29">
+        <v>27</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="18"/>
+        <v>23</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="17"/>
+        <v>20.988235294117647</v>
+      </c>
+      <c r="S30">
+        <v>28</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="18"/>
+        <v>22</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="17"/>
+        <v>20.113725490196078</v>
+      </c>
+      <c r="S31">
+        <v>29</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="18"/>
+        <v>21</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="17"/>
+        <v>19.239215686274509</v>
+      </c>
+      <c r="S32">
+        <v>30</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="18"/>
+        <v>20</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="17"/>
+        <v>18.36470588235294</v>
+      </c>
+      <c r="S33">
+        <v>31</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="18"/>
+        <v>19</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="17"/>
+        <v>17.490196078431374</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="18"/>
+        <v>18</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="17"/>
+        <v>16.615686274509805</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="18"/>
+        <v>17</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="17"/>
+        <v>15.741176470588236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" ref="A37" si="19">A36-1</f>
+        <v>16</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="17"/>
+        <v>14.866666666666667</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" ref="A38:A51" si="20">A37-1</f>
+        <v>15</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="17"/>
+        <v>13.992156862745098</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="20"/>
+        <v>14</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="17"/>
+        <v>13.117647058823529</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="20"/>
+        <v>13</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="17"/>
+        <v>12.24313725490196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="20"/>
+        <v>12</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="17"/>
+        <v>11.368627450980393</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="20"/>
+        <v>11</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="17"/>
+        <v>10.494117647058824</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="17"/>
+        <v>9.6196078431372545</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="20"/>
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="17"/>
+        <v>8.7450980392156872</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="17"/>
+        <v>7.8705882352941181</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="20"/>
+        <v>7</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="17"/>
+        <v>6.996078431372549</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="20"/>
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="17"/>
+        <v>6.12156862745098</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="17"/>
+        <v>5.2470588235294118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="17"/>
+        <v>4.3725490196078436</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="20"/>
+        <v>3</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="17"/>
+        <v>3.4980392156862745</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="17"/>
+        <v>2.6235294117647059</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" ref="A52:A53" si="21">A51-1</f>
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="17"/>
+        <v>1.7490196078431373</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="17"/>
+        <v>0.87450980392156863</v>
       </c>
     </row>
   </sheetData>

--- a/PhotonTorpedo.Device/Calculations.xlsx
+++ b/PhotonTorpedo.Device/Calculations.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Rainbow" sheetId="1" r:id="rId1"/>
+    <sheet name="Blend" sheetId="2" r:id="rId2"/>
+    <sheet name="MirrorOffset" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>WheelPos</t>
   </si>
@@ -36,18 +37,48 @@
   <si>
     <t>B</t>
   </si>
+  <si>
+    <t>capped 2</t>
+  </si>
+  <si>
+    <t>capped 1</t>
+  </si>
+  <si>
+    <t>mirror2 w offset</t>
+  </si>
+  <si>
+    <t>mirror1 w offset</t>
+  </si>
+  <si>
+    <t>mirror2</t>
+  </si>
+  <si>
+    <t>mirror1</t>
+  </si>
+  <si>
+    <t>capped</t>
+  </si>
+  <si>
+    <t>offset</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -58,7 +89,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -66,16 +97,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -130,6 +184,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -150,7 +205,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Rainbow!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -170,7 +225,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$257</c:f>
+              <c:f>Rainbow!$B$2:$B$257</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="256"/>
@@ -956,7 +1011,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Rainbow!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -976,7 +1031,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$257</c:f>
+              <c:f>Rainbow!$C$2:$C$257</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="256"/>
@@ -1762,7 +1817,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Rainbow!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1782,7 +1837,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$257</c:f>
+              <c:f>Rainbow!$D$2:$D$257</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="256"/>
@@ -2571,11 +2626,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="94760960"/>
-        <c:axId val="94762496"/>
+        <c:axId val="117041408"/>
+        <c:axId val="124391424"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="94760960"/>
+        <c:axId val="117041408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2617,7 +2672,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94762496"/>
+        <c:crossAx val="124391424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2625,7 +2680,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94762496"/>
+        <c:axId val="124391424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2676,7 +2731,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94760960"/>
+        <c:crossAx val="117041408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2690,6 +2745,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3339,7 +3395,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91579B79-405D-485C-98E4-87124039E2F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{91579B79-405D-485C-98E4-87124039E2F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3649,7 +3705,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9072,7 +9128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -10699,4 +10755,1244 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="9.140625" style="3"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <f>A3+B$2</f>
+        <v>4</v>
+      </c>
+      <c r="C3" s="3">
+        <f>IF(B3&gt;=$A$2, B3 - $A$2, IF(B3&lt;0, B3 + $A$2, B3))</f>
+        <v>4</v>
+      </c>
+      <c r="D3" s="2">
+        <f>ROUNDDOWN(A3/2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <f>$A$2-D3 - 1</f>
+        <v>31</v>
+      </c>
+      <c r="F3" s="2">
+        <f>D3+B$2</f>
+        <v>4</v>
+      </c>
+      <c r="G3" s="2">
+        <f>E3+B$2</f>
+        <v>35</v>
+      </c>
+      <c r="H3" s="2">
+        <f>IF(F3&gt;=$A$2, F3 - $A$2, IF(F3&lt;0, F3 + $A$2, F3))</f>
+        <v>4</v>
+      </c>
+      <c r="I3" s="2">
+        <f>IF(G3&gt;=$A$2, G3 - $A$2, IF(G3&lt;0, G3 + $A$2, G3))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <f>A4+B$2</f>
+        <v>5</v>
+      </c>
+      <c r="C4" s="3">
+        <f>IF(B4&gt;=$A$2, B4 - $A$2, IF(B4&lt;0, B4 + $A$2, B4))</f>
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <f>ROUNDDOWN(A4/2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <f>$A$2-D4 - 1</f>
+        <v>31</v>
+      </c>
+      <c r="F4" s="2">
+        <f>D4+B$2</f>
+        <v>4</v>
+      </c>
+      <c r="G4" s="2">
+        <f>E4+B$2</f>
+        <v>35</v>
+      </c>
+      <c r="H4" s="2">
+        <f>IF(F4&gt;=$A$2, F4 - $A$2, IF(F4&lt;0, F4 + $A$2, F4))</f>
+        <v>4</v>
+      </c>
+      <c r="I4" s="2">
+        <f>IF(G4&gt;=$A$2, G4 - $A$2, IF(G4&lt;0, G4 + $A$2, G4))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <f>A5+B$2</f>
+        <v>6</v>
+      </c>
+      <c r="C5" s="3">
+        <f>IF(B5&gt;=$A$2, B5 - $A$2, IF(B5&lt;0, B5 + $A$2, B5))</f>
+        <v>6</v>
+      </c>
+      <c r="D5" s="2">
+        <f>ROUNDDOWN(A5/2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <f>$A$2-D5 - 1</f>
+        <v>30</v>
+      </c>
+      <c r="F5" s="2">
+        <f>D5+B$2</f>
+        <v>5</v>
+      </c>
+      <c r="G5" s="2">
+        <f>E5+B$2</f>
+        <v>34</v>
+      </c>
+      <c r="H5" s="2">
+        <f>IF(F5&gt;=$A$2, F5 - $A$2, IF(F5&lt;0, F5 + $A$2, F5))</f>
+        <v>5</v>
+      </c>
+      <c r="I5" s="2">
+        <f>IF(G5&gt;=$A$2, G5 - $A$2, IF(G5&lt;0, G5 + $A$2, G5))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <f>A6+B$2</f>
+        <v>7</v>
+      </c>
+      <c r="C6" s="3">
+        <f>IF(B6&gt;=$A$2, B6 - $A$2, IF(B6&lt;0, B6 + $A$2, B6))</f>
+        <v>7</v>
+      </c>
+      <c r="D6" s="2">
+        <f>ROUNDDOWN(A6/2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <f>$A$2-D6 - 1</f>
+        <v>30</v>
+      </c>
+      <c r="F6" s="2">
+        <f>D6+B$2</f>
+        <v>5</v>
+      </c>
+      <c r="G6" s="2">
+        <f>E6+B$2</f>
+        <v>34</v>
+      </c>
+      <c r="H6" s="2">
+        <f>IF(F6&gt;=$A$2, F6 - $A$2, IF(F6&lt;0, F6 + $A$2, F6))</f>
+        <v>5</v>
+      </c>
+      <c r="I6" s="2">
+        <f>IF(G6&gt;=$A$2, G6 - $A$2, IF(G6&lt;0, G6 + $A$2, G6))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <f>A7+B$2</f>
+        <v>8</v>
+      </c>
+      <c r="C7" s="3">
+        <f>IF(B7&gt;=$A$2, B7 - $A$2, IF(B7&lt;0, B7 + $A$2, B7))</f>
+        <v>8</v>
+      </c>
+      <c r="D7" s="2">
+        <f>ROUNDDOWN(A7/2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <f>$A$2-D7 - 1</f>
+        <v>29</v>
+      </c>
+      <c r="F7" s="2">
+        <f>D7+B$2</f>
+        <v>6</v>
+      </c>
+      <c r="G7" s="2">
+        <f>E7+B$2</f>
+        <v>33</v>
+      </c>
+      <c r="H7" s="2">
+        <f>IF(F7&gt;=$A$2, F7 - $A$2, IF(F7&lt;0, F7 + $A$2, F7))</f>
+        <v>6</v>
+      </c>
+      <c r="I7" s="2">
+        <f>IF(G7&gt;=$A$2, G7 - $A$2, IF(G7&lt;0, G7 + $A$2, G7))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
+        <f>A8+B$2</f>
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <f>IF(B8&gt;=$A$2, B8 - $A$2, IF(B8&lt;0, B8 + $A$2, B8))</f>
+        <v>9</v>
+      </c>
+      <c r="D8" s="2">
+        <f>ROUNDDOWN(A8/2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <f>$A$2-D8 - 1</f>
+        <v>29</v>
+      </c>
+      <c r="F8" s="2">
+        <f>D8+B$2</f>
+        <v>6</v>
+      </c>
+      <c r="G8" s="2">
+        <f>E8+B$2</f>
+        <v>33</v>
+      </c>
+      <c r="H8" s="2">
+        <f>IF(F8&gt;=$A$2, F8 - $A$2, IF(F8&lt;0, F8 + $A$2, F8))</f>
+        <v>6</v>
+      </c>
+      <c r="I8" s="2">
+        <f>IF(G8&gt;=$A$2, G8 - $A$2, IF(G8&lt;0, G8 + $A$2, G8))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2">
+        <f>A9+B$2</f>
+        <v>10</v>
+      </c>
+      <c r="C9" s="3">
+        <f>IF(B9&gt;=$A$2, B9 - $A$2, IF(B9&lt;0, B9 + $A$2, B9))</f>
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
+        <f>ROUNDDOWN(A9/2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="E9" s="2">
+        <f>$A$2-D9 - 1</f>
+        <v>28</v>
+      </c>
+      <c r="F9" s="2">
+        <f>D9+B$2</f>
+        <v>7</v>
+      </c>
+      <c r="G9" s="2">
+        <f>E9+B$2</f>
+        <v>32</v>
+      </c>
+      <c r="H9" s="2">
+        <f>IF(F9&gt;=$A$2, F9 - $A$2, IF(F9&lt;0, F9 + $A$2, F9))</f>
+        <v>7</v>
+      </c>
+      <c r="I9" s="2">
+        <f>IF(G9&gt;=$A$2, G9 - $A$2, IF(G9&lt;0, G9 + $A$2, G9))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2">
+        <f>A10+B$2</f>
+        <v>11</v>
+      </c>
+      <c r="C10" s="3">
+        <f>IF(B10&gt;=$A$2, B10 - $A$2, IF(B10&lt;0, B10 + $A$2, B10))</f>
+        <v>11</v>
+      </c>
+      <c r="D10" s="2">
+        <f>ROUNDDOWN(A10/2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="E10" s="2">
+        <f>$A$2-D10 - 1</f>
+        <v>28</v>
+      </c>
+      <c r="F10" s="2">
+        <f>D10+B$2</f>
+        <v>7</v>
+      </c>
+      <c r="G10" s="2">
+        <f>E10+B$2</f>
+        <v>32</v>
+      </c>
+      <c r="H10" s="2">
+        <f>IF(F10&gt;=$A$2, F10 - $A$2, IF(F10&lt;0, F10 + $A$2, F10))</f>
+        <v>7</v>
+      </c>
+      <c r="I10" s="2">
+        <f>IF(G10&gt;=$A$2, G10 - $A$2, IF(G10&lt;0, G10 + $A$2, G10))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2">
+        <f>A11+B$2</f>
+        <v>12</v>
+      </c>
+      <c r="C11" s="3">
+        <f>IF(B11&gt;=$A$2, B11 - $A$2, IF(B11&lt;0, B11 + $A$2, B11))</f>
+        <v>12</v>
+      </c>
+      <c r="D11" s="2">
+        <f>ROUNDDOWN(A11/2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="E11" s="2">
+        <f>$A$2-D11 - 1</f>
+        <v>27</v>
+      </c>
+      <c r="F11" s="2">
+        <f>D11+B$2</f>
+        <v>8</v>
+      </c>
+      <c r="G11" s="2">
+        <f>E11+B$2</f>
+        <v>31</v>
+      </c>
+      <c r="H11" s="2">
+        <f>IF(F11&gt;=$A$2, F11 - $A$2, IF(F11&lt;0, F11 + $A$2, F11))</f>
+        <v>8</v>
+      </c>
+      <c r="I11" s="2">
+        <f>IF(G11&gt;=$A$2, G11 - $A$2, IF(G11&lt;0, G11 + $A$2, G11))</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2">
+        <f>A12+B$2</f>
+        <v>13</v>
+      </c>
+      <c r="C12" s="3">
+        <f>IF(B12&gt;=$A$2, B12 - $A$2, IF(B12&lt;0, B12 + $A$2, B12))</f>
+        <v>13</v>
+      </c>
+      <c r="D12" s="2">
+        <f>ROUNDDOWN(A12/2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="E12" s="2">
+        <f>$A$2-D12 - 1</f>
+        <v>27</v>
+      </c>
+      <c r="F12" s="2">
+        <f>D12+B$2</f>
+        <v>8</v>
+      </c>
+      <c r="G12" s="2">
+        <f>E12+B$2</f>
+        <v>31</v>
+      </c>
+      <c r="H12" s="2">
+        <f>IF(F12&gt;=$A$2, F12 - $A$2, IF(F12&lt;0, F12 + $A$2, F12))</f>
+        <v>8</v>
+      </c>
+      <c r="I12" s="2">
+        <f>IF(G12&gt;=$A$2, G12 - $A$2, IF(G12&lt;0, G12 + $A$2, G12))</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2">
+        <f>A13+B$2</f>
+        <v>14</v>
+      </c>
+      <c r="C13" s="3">
+        <f>IF(B13&gt;=$A$2, B13 - $A$2, IF(B13&lt;0, B13 + $A$2, B13))</f>
+        <v>14</v>
+      </c>
+      <c r="D13" s="2">
+        <f>ROUNDDOWN(A13/2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="E13" s="2">
+        <f>$A$2-D13 - 1</f>
+        <v>26</v>
+      </c>
+      <c r="F13" s="2">
+        <f>D13+B$2</f>
+        <v>9</v>
+      </c>
+      <c r="G13" s="2">
+        <f>E13+B$2</f>
+        <v>30</v>
+      </c>
+      <c r="H13" s="2">
+        <f>IF(F13&gt;=$A$2, F13 - $A$2, IF(F13&lt;0, F13 + $A$2, F13))</f>
+        <v>9</v>
+      </c>
+      <c r="I13" s="2">
+        <f>IF(G13&gt;=$A$2, G13 - $A$2, IF(G13&lt;0, G13 + $A$2, G13))</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2">
+        <f>A14+B$2</f>
+        <v>15</v>
+      </c>
+      <c r="C14" s="3">
+        <f>IF(B14&gt;=$A$2, B14 - $A$2, IF(B14&lt;0, B14 + $A$2, B14))</f>
+        <v>15</v>
+      </c>
+      <c r="D14" s="2">
+        <f>ROUNDDOWN(A14/2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="E14" s="2">
+        <f>$A$2-D14 - 1</f>
+        <v>26</v>
+      </c>
+      <c r="F14" s="2">
+        <f>D14+B$2</f>
+        <v>9</v>
+      </c>
+      <c r="G14" s="2">
+        <f>E14+B$2</f>
+        <v>30</v>
+      </c>
+      <c r="H14" s="2">
+        <f>IF(F14&gt;=$A$2, F14 - $A$2, IF(F14&lt;0, F14 + $A$2, F14))</f>
+        <v>9</v>
+      </c>
+      <c r="I14" s="2">
+        <f>IF(G14&gt;=$A$2, G14 - $A$2, IF(G14&lt;0, G14 + $A$2, G14))</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2">
+        <f>A15+B$2</f>
+        <v>16</v>
+      </c>
+      <c r="C15" s="3">
+        <f>IF(B15&gt;=$A$2, B15 - $A$2, IF(B15&lt;0, B15 + $A$2, B15))</f>
+        <v>16</v>
+      </c>
+      <c r="D15" s="2">
+        <f>ROUNDDOWN(A15/2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="E15" s="2">
+        <f>$A$2-D15 - 1</f>
+        <v>25</v>
+      </c>
+      <c r="F15" s="2">
+        <f>D15+B$2</f>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2">
+        <f>E15+B$2</f>
+        <v>29</v>
+      </c>
+      <c r="H15" s="2">
+        <f>IF(F15&gt;=$A$2, F15 - $A$2, IF(F15&lt;0, F15 + $A$2, F15))</f>
+        <v>10</v>
+      </c>
+      <c r="I15" s="2">
+        <f>IF(G15&gt;=$A$2, G15 - $A$2, IF(G15&lt;0, G15 + $A$2, G15))</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2">
+        <f>A16+B$2</f>
+        <v>17</v>
+      </c>
+      <c r="C16" s="3">
+        <f>IF(B16&gt;=$A$2, B16 - $A$2, IF(B16&lt;0, B16 + $A$2, B16))</f>
+        <v>17</v>
+      </c>
+      <c r="D16" s="2">
+        <f>ROUNDDOWN(A16/2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="E16" s="2">
+        <f>$A$2-D16 - 1</f>
+        <v>25</v>
+      </c>
+      <c r="F16" s="2">
+        <f>D16+B$2</f>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2">
+        <f>E16+B$2</f>
+        <v>29</v>
+      </c>
+      <c r="H16" s="2">
+        <f>IF(F16&gt;=$A$2, F16 - $A$2, IF(F16&lt;0, F16 + $A$2, F16))</f>
+        <v>10</v>
+      </c>
+      <c r="I16" s="2">
+        <f>IF(G16&gt;=$A$2, G16 - $A$2, IF(G16&lt;0, G16 + $A$2, G16))</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2">
+        <f>A17+B$2</f>
+        <v>18</v>
+      </c>
+      <c r="C17" s="3">
+        <f>IF(B17&gt;=$A$2, B17 - $A$2, IF(B17&lt;0, B17 + $A$2, B17))</f>
+        <v>18</v>
+      </c>
+      <c r="D17" s="2">
+        <f>ROUNDDOWN(A17/2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="E17" s="2">
+        <f>$A$2-D17 - 1</f>
+        <v>24</v>
+      </c>
+      <c r="F17" s="2">
+        <f>D17+B$2</f>
+        <v>11</v>
+      </c>
+      <c r="G17" s="2">
+        <f>E17+B$2</f>
+        <v>28</v>
+      </c>
+      <c r="H17" s="2">
+        <f>IF(F17&gt;=$A$2, F17 - $A$2, IF(F17&lt;0, F17 + $A$2, F17))</f>
+        <v>11</v>
+      </c>
+      <c r="I17" s="2">
+        <f>IF(G17&gt;=$A$2, G17 - $A$2, IF(G17&lt;0, G17 + $A$2, G17))</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2">
+        <f>A18+B$2</f>
+        <v>19</v>
+      </c>
+      <c r="C18" s="3">
+        <f>IF(B18&gt;=$A$2, B18 - $A$2, IF(B18&lt;0, B18 + $A$2, B18))</f>
+        <v>19</v>
+      </c>
+      <c r="D18" s="2">
+        <f>ROUNDDOWN(A18/2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="E18" s="2">
+        <f>$A$2-D18 - 1</f>
+        <v>24</v>
+      </c>
+      <c r="F18" s="2">
+        <f>D18+B$2</f>
+        <v>11</v>
+      </c>
+      <c r="G18" s="2">
+        <f>E18+B$2</f>
+        <v>28</v>
+      </c>
+      <c r="H18" s="2">
+        <f>IF(F18&gt;=$A$2, F18 - $A$2, IF(F18&lt;0, F18 + $A$2, F18))</f>
+        <v>11</v>
+      </c>
+      <c r="I18" s="2">
+        <f>IF(G18&gt;=$A$2, G18 - $A$2, IF(G18&lt;0, G18 + $A$2, G18))</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2">
+        <f>A19+B$2</f>
+        <v>20</v>
+      </c>
+      <c r="C19" s="3">
+        <f>IF(B19&gt;=$A$2, B19 - $A$2, IF(B19&lt;0, B19 + $A$2, B19))</f>
+        <v>20</v>
+      </c>
+      <c r="D19" s="2">
+        <f>ROUNDDOWN(A19/2,0)</f>
+        <v>8</v>
+      </c>
+      <c r="E19" s="2">
+        <f>$A$2-D19 - 1</f>
+        <v>23</v>
+      </c>
+      <c r="F19" s="2">
+        <f>D19+B$2</f>
+        <v>12</v>
+      </c>
+      <c r="G19" s="2">
+        <f>E19+B$2</f>
+        <v>27</v>
+      </c>
+      <c r="H19" s="2">
+        <f>IF(F19&gt;=$A$2, F19 - $A$2, IF(F19&lt;0, F19 + $A$2, F19))</f>
+        <v>12</v>
+      </c>
+      <c r="I19" s="2">
+        <f>IF(G19&gt;=$A$2, G19 - $A$2, IF(G19&lt;0, G19 + $A$2, G19))</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2">
+        <f>A20+B$2</f>
+        <v>21</v>
+      </c>
+      <c r="C20" s="3">
+        <f>IF(B20&gt;=$A$2, B20 - $A$2, IF(B20&lt;0, B20 + $A$2, B20))</f>
+        <v>21</v>
+      </c>
+      <c r="D20" s="2">
+        <f>ROUNDDOWN(A20/2,0)</f>
+        <v>8</v>
+      </c>
+      <c r="E20" s="2">
+        <f>$A$2-D20 - 1</f>
+        <v>23</v>
+      </c>
+      <c r="F20" s="2">
+        <f>D20+B$2</f>
+        <v>12</v>
+      </c>
+      <c r="G20" s="2">
+        <f>E20+B$2</f>
+        <v>27</v>
+      </c>
+      <c r="H20" s="2">
+        <f>IF(F20&gt;=$A$2, F20 - $A$2, IF(F20&lt;0, F20 + $A$2, F20))</f>
+        <v>12</v>
+      </c>
+      <c r="I20" s="2">
+        <f>IF(G20&gt;=$A$2, G20 - $A$2, IF(G20&lt;0, G20 + $A$2, G20))</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2">
+        <f>A21+B$2</f>
+        <v>22</v>
+      </c>
+      <c r="C21" s="3">
+        <f>IF(B21&gt;=$A$2, B21 - $A$2, IF(B21&lt;0, B21 + $A$2, B21))</f>
+        <v>22</v>
+      </c>
+      <c r="D21" s="2">
+        <f>ROUNDDOWN(A21/2,0)</f>
+        <v>9</v>
+      </c>
+      <c r="E21" s="2">
+        <f>$A$2-D21 - 1</f>
+        <v>22</v>
+      </c>
+      <c r="F21" s="2">
+        <f>D21+B$2</f>
+        <v>13</v>
+      </c>
+      <c r="G21" s="2">
+        <f>E21+B$2</f>
+        <v>26</v>
+      </c>
+      <c r="H21" s="2">
+        <f>IF(F21&gt;=$A$2, F21 - $A$2, IF(F21&lt;0, F21 + $A$2, F21))</f>
+        <v>13</v>
+      </c>
+      <c r="I21" s="2">
+        <f>IF(G21&gt;=$A$2, G21 - $A$2, IF(G21&lt;0, G21 + $A$2, G21))</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2">
+        <f>A22+B$2</f>
+        <v>23</v>
+      </c>
+      <c r="C22" s="3">
+        <f>IF(B22&gt;=$A$2, B22 - $A$2, IF(B22&lt;0, B22 + $A$2, B22))</f>
+        <v>23</v>
+      </c>
+      <c r="D22" s="2">
+        <f>ROUNDDOWN(A22/2,0)</f>
+        <v>9</v>
+      </c>
+      <c r="E22" s="2">
+        <f>$A$2-D22 - 1</f>
+        <v>22</v>
+      </c>
+      <c r="F22" s="2">
+        <f>D22+B$2</f>
+        <v>13</v>
+      </c>
+      <c r="G22" s="2">
+        <f>E22+B$2</f>
+        <v>26</v>
+      </c>
+      <c r="H22" s="2">
+        <f>IF(F22&gt;=$A$2, F22 - $A$2, IF(F22&lt;0, F22 + $A$2, F22))</f>
+        <v>13</v>
+      </c>
+      <c r="I22" s="2">
+        <f>IF(G22&gt;=$A$2, G22 - $A$2, IF(G22&lt;0, G22 + $A$2, G22))</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2">
+        <f>A23+B$2</f>
+        <v>24</v>
+      </c>
+      <c r="C23" s="3">
+        <f>IF(B23&gt;=$A$2, B23 - $A$2, IF(B23&lt;0, B23 + $A$2, B23))</f>
+        <v>24</v>
+      </c>
+      <c r="D23" s="2">
+        <f>ROUNDDOWN(A23/2,0)</f>
+        <v>10</v>
+      </c>
+      <c r="E23" s="2">
+        <f>$A$2-D23 - 1</f>
+        <v>21</v>
+      </c>
+      <c r="F23" s="2">
+        <f>D23+B$2</f>
+        <v>14</v>
+      </c>
+      <c r="G23" s="2">
+        <f>E23+B$2</f>
+        <v>25</v>
+      </c>
+      <c r="H23" s="2">
+        <f>IF(F23&gt;=$A$2, F23 - $A$2, IF(F23&lt;0, F23 + $A$2, F23))</f>
+        <v>14</v>
+      </c>
+      <c r="I23" s="2">
+        <f>IF(G23&gt;=$A$2, G23 - $A$2, IF(G23&lt;0, G23 + $A$2, G23))</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2">
+        <f>A24+B$2</f>
+        <v>25</v>
+      </c>
+      <c r="C24" s="3">
+        <f>IF(B24&gt;=$A$2, B24 - $A$2, IF(B24&lt;0, B24 + $A$2, B24))</f>
+        <v>25</v>
+      </c>
+      <c r="D24" s="2">
+        <f>ROUNDDOWN(A24/2,0)</f>
+        <v>10</v>
+      </c>
+      <c r="E24" s="2">
+        <f>$A$2-D24 - 1</f>
+        <v>21</v>
+      </c>
+      <c r="F24" s="2">
+        <f>D24+B$2</f>
+        <v>14</v>
+      </c>
+      <c r="G24" s="2">
+        <f>E24+B$2</f>
+        <v>25</v>
+      </c>
+      <c r="H24" s="2">
+        <f>IF(F24&gt;=$A$2, F24 - $A$2, IF(F24&lt;0, F24 + $A$2, F24))</f>
+        <v>14</v>
+      </c>
+      <c r="I24" s="2">
+        <f>IF(G24&gt;=$A$2, G24 - $A$2, IF(G24&lt;0, G24 + $A$2, G24))</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2">
+        <f>A25+B$2</f>
+        <v>26</v>
+      </c>
+      <c r="C25" s="3">
+        <f>IF(B25&gt;=$A$2, B25 - $A$2, IF(B25&lt;0, B25 + $A$2, B25))</f>
+        <v>26</v>
+      </c>
+      <c r="D25" s="2">
+        <f>ROUNDDOWN(A25/2,0)</f>
+        <v>11</v>
+      </c>
+      <c r="E25" s="2">
+        <f>$A$2-D25 - 1</f>
+        <v>20</v>
+      </c>
+      <c r="F25" s="2">
+        <f>D25+B$2</f>
+        <v>15</v>
+      </c>
+      <c r="G25" s="2">
+        <f>E25+B$2</f>
+        <v>24</v>
+      </c>
+      <c r="H25" s="2">
+        <f>IF(F25&gt;=$A$2, F25 - $A$2, IF(F25&lt;0, F25 + $A$2, F25))</f>
+        <v>15</v>
+      </c>
+      <c r="I25" s="2">
+        <f>IF(G25&gt;=$A$2, G25 - $A$2, IF(G25&lt;0, G25 + $A$2, G25))</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2">
+        <f>A26+B$2</f>
+        <v>27</v>
+      </c>
+      <c r="C26" s="3">
+        <f>IF(B26&gt;=$A$2, B26 - $A$2, IF(B26&lt;0, B26 + $A$2, B26))</f>
+        <v>27</v>
+      </c>
+      <c r="D26" s="2">
+        <f>ROUNDDOWN(A26/2,0)</f>
+        <v>11</v>
+      </c>
+      <c r="E26" s="2">
+        <f>$A$2-D26 - 1</f>
+        <v>20</v>
+      </c>
+      <c r="F26" s="2">
+        <f>D26+B$2</f>
+        <v>15</v>
+      </c>
+      <c r="G26" s="2">
+        <f>E26+B$2</f>
+        <v>24</v>
+      </c>
+      <c r="H26" s="2">
+        <f>IF(F26&gt;=$A$2, F26 - $A$2, IF(F26&lt;0, F26 + $A$2, F26))</f>
+        <v>15</v>
+      </c>
+      <c r="I26" s="2">
+        <f>IF(G26&gt;=$A$2, G26 - $A$2, IF(G26&lt;0, G26 + $A$2, G26))</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2">
+        <f>A27+B$2</f>
+        <v>28</v>
+      </c>
+      <c r="C27" s="3">
+        <f>IF(B27&gt;=$A$2, B27 - $A$2, IF(B27&lt;0, B27 + $A$2, B27))</f>
+        <v>28</v>
+      </c>
+      <c r="D27" s="2">
+        <f>ROUNDDOWN(A27/2,0)</f>
+        <v>12</v>
+      </c>
+      <c r="E27" s="2">
+        <f>$A$2-D27 - 1</f>
+        <v>19</v>
+      </c>
+      <c r="F27" s="2">
+        <f>D27+B$2</f>
+        <v>16</v>
+      </c>
+      <c r="G27" s="2">
+        <f>E27+B$2</f>
+        <v>23</v>
+      </c>
+      <c r="H27" s="2">
+        <f>IF(F27&gt;=$A$2, F27 - $A$2, IF(F27&lt;0, F27 + $A$2, F27))</f>
+        <v>16</v>
+      </c>
+      <c r="I27" s="2">
+        <f>IF(G27&gt;=$A$2, G27 - $A$2, IF(G27&lt;0, G27 + $A$2, G27))</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>25</v>
+      </c>
+      <c r="B28" s="2">
+        <f>A28+B$2</f>
+        <v>29</v>
+      </c>
+      <c r="C28" s="3">
+        <f>IF(B28&gt;=$A$2, B28 - $A$2, IF(B28&lt;0, B28 + $A$2, B28))</f>
+        <v>29</v>
+      </c>
+      <c r="D28" s="2">
+        <f>ROUNDDOWN(A28/2,0)</f>
+        <v>12</v>
+      </c>
+      <c r="E28" s="2">
+        <f>$A$2-D28 - 1</f>
+        <v>19</v>
+      </c>
+      <c r="F28" s="2">
+        <f>D28+B$2</f>
+        <v>16</v>
+      </c>
+      <c r="G28" s="2">
+        <f>E28+B$2</f>
+        <v>23</v>
+      </c>
+      <c r="H28" s="2">
+        <f>IF(F28&gt;=$A$2, F28 - $A$2, IF(F28&lt;0, F28 + $A$2, F28))</f>
+        <v>16</v>
+      </c>
+      <c r="I28" s="2">
+        <f>IF(G28&gt;=$A$2, G28 - $A$2, IF(G28&lt;0, G28 + $A$2, G28))</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2">
+        <f>A29+B$2</f>
+        <v>30</v>
+      </c>
+      <c r="C29" s="3">
+        <f>IF(B29&gt;=$A$2, B29 - $A$2, IF(B29&lt;0, B29 + $A$2, B29))</f>
+        <v>30</v>
+      </c>
+      <c r="D29" s="2">
+        <f>ROUNDDOWN(A29/2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="E29" s="2">
+        <f>$A$2-D29 - 1</f>
+        <v>18</v>
+      </c>
+      <c r="F29" s="2">
+        <f>D29+B$2</f>
+        <v>17</v>
+      </c>
+      <c r="G29" s="2">
+        <f>E29+B$2</f>
+        <v>22</v>
+      </c>
+      <c r="H29" s="2">
+        <f>IF(F29&gt;=$A$2, F29 - $A$2, IF(F29&lt;0, F29 + $A$2, F29))</f>
+        <v>17</v>
+      </c>
+      <c r="I29" s="2">
+        <f>IF(G29&gt;=$A$2, G29 - $A$2, IF(G29&lt;0, G29 + $A$2, G29))</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2">
+        <f>A30+B$2</f>
+        <v>31</v>
+      </c>
+      <c r="C30" s="3">
+        <f>IF(B30&gt;=$A$2, B30 - $A$2, IF(B30&lt;0, B30 + $A$2, B30))</f>
+        <v>31</v>
+      </c>
+      <c r="D30" s="2">
+        <f>ROUNDDOWN(A30/2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="E30" s="2">
+        <f>$A$2-D30 - 1</f>
+        <v>18</v>
+      </c>
+      <c r="F30" s="2">
+        <f>D30+B$2</f>
+        <v>17</v>
+      </c>
+      <c r="G30" s="2">
+        <f>E30+B$2</f>
+        <v>22</v>
+      </c>
+      <c r="H30" s="2">
+        <f>IF(F30&gt;=$A$2, F30 - $A$2, IF(F30&lt;0, F30 + $A$2, F30))</f>
+        <v>17</v>
+      </c>
+      <c r="I30" s="2">
+        <f>IF(G30&gt;=$A$2, G30 - $A$2, IF(G30&lt;0, G30 + $A$2, G30))</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>28</v>
+      </c>
+      <c r="B31" s="2">
+        <f>A31+B$2</f>
+        <v>32</v>
+      </c>
+      <c r="C31" s="3">
+        <f>IF(B31&gt;=$A$2, B31 - $A$2, IF(B31&lt;0, B31 + $A$2, B31))</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
+        <f>ROUNDDOWN(A31/2,0)</f>
+        <v>14</v>
+      </c>
+      <c r="E31" s="2">
+        <f>$A$2-D31 - 1</f>
+        <v>17</v>
+      </c>
+      <c r="F31" s="2">
+        <f>D31+B$2</f>
+        <v>18</v>
+      </c>
+      <c r="G31" s="2">
+        <f>E31+B$2</f>
+        <v>21</v>
+      </c>
+      <c r="H31" s="2">
+        <f>IF(F31&gt;=$A$2, F31 - $A$2, IF(F31&lt;0, F31 + $A$2, F31))</f>
+        <v>18</v>
+      </c>
+      <c r="I31" s="2">
+        <f>IF(G31&gt;=$A$2, G31 - $A$2, IF(G31&lt;0, G31 + $A$2, G31))</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>29</v>
+      </c>
+      <c r="B32" s="2">
+        <f>A32+B$2</f>
+        <v>33</v>
+      </c>
+      <c r="C32" s="3">
+        <f>IF(B32&gt;=$A$2, B32 - $A$2, IF(B32&lt;0, B32 + $A$2, B32))</f>
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <f>ROUNDDOWN(A32/2,0)</f>
+        <v>14</v>
+      </c>
+      <c r="E32" s="2">
+        <f>$A$2-D32 - 1</f>
+        <v>17</v>
+      </c>
+      <c r="F32" s="2">
+        <f>D32+B$2</f>
+        <v>18</v>
+      </c>
+      <c r="G32" s="2">
+        <f>E32+B$2</f>
+        <v>21</v>
+      </c>
+      <c r="H32" s="2">
+        <f>IF(F32&gt;=$A$2, F32 - $A$2, IF(F32&lt;0, F32 + $A$2, F32))</f>
+        <v>18</v>
+      </c>
+      <c r="I32" s="2">
+        <f>IF(G32&gt;=$A$2, G32 - $A$2, IF(G32&lt;0, G32 + $A$2, G32))</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>30</v>
+      </c>
+      <c r="B33" s="2">
+        <f>A33+B$2</f>
+        <v>34</v>
+      </c>
+      <c r="C33" s="3">
+        <f>IF(B33&gt;=$A$2, B33 - $A$2, IF(B33&lt;0, B33 + $A$2, B33))</f>
+        <v>2</v>
+      </c>
+      <c r="D33" s="2">
+        <f>ROUNDDOWN(A33/2,0)</f>
+        <v>15</v>
+      </c>
+      <c r="E33" s="2">
+        <f>$A$2-D33 - 1</f>
+        <v>16</v>
+      </c>
+      <c r="F33" s="2">
+        <f>D33+B$2</f>
+        <v>19</v>
+      </c>
+      <c r="G33" s="2">
+        <f>E33+B$2</f>
+        <v>20</v>
+      </c>
+      <c r="H33" s="2">
+        <f>IF(F33&gt;=$A$2, F33 - $A$2, IF(F33&lt;0, F33 + $A$2, F33))</f>
+        <v>19</v>
+      </c>
+      <c r="I33" s="2">
+        <f>IF(G33&gt;=$A$2, G33 - $A$2, IF(G33&lt;0, G33 + $A$2, G33))</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2">
+        <f>A34+B$2</f>
+        <v>35</v>
+      </c>
+      <c r="C34" s="3">
+        <f>IF(B34&gt;=$A$2, B34 - $A$2, IF(B34&lt;0, B34 + $A$2, B34))</f>
+        <v>3</v>
+      </c>
+      <c r="D34" s="2">
+        <f>ROUNDDOWN(A34/2,0)</f>
+        <v>15</v>
+      </c>
+      <c r="E34" s="2">
+        <f>$A$2-D34 - 1</f>
+        <v>16</v>
+      </c>
+      <c r="F34" s="2">
+        <f>D34+B$2</f>
+        <v>19</v>
+      </c>
+      <c r="G34" s="2">
+        <f>E34+B$2</f>
+        <v>20</v>
+      </c>
+      <c r="H34" s="2">
+        <f>IF(F34&gt;=$A$2, F34 - $A$2, IF(F34&lt;0, F34 + $A$2, F34))</f>
+        <v>19</v>
+      </c>
+      <c r="I34" s="2">
+        <f>IF(G34&gt;=$A$2, G34 - $A$2, IF(G34&lt;0, G34 + $A$2, G34))</f>
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>